--- a/output/PersonalHealthRecords/patient-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/patient-ihi-1.xlsx
@@ -463,6 +463,10 @@
     <t>Identifier as assigned and available via Healthcare Identifiers (HI) service.</t>
   </si>
   <si>
+    <t>inv-ihi-value-0:IHI shall be an exactly 16 digit number {value.matches('^([0-9]{16})$')}
+inv-ihi-value-1:IHI prefix is 800360 {value.startsWith('800360')}inv-ihi-value-2:IHI shall pass the Luhn algorithm check {(((select(value.substring(0,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(1,1).toInteger())+(select(value.substring(2,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(3,1).toInteger())+(select(value.substring(4,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(5,1).toInteger())+(select(value.substring(6,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(7,1).toInteger())+(select(value.substring(8,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(9,1).toInteger())+(select(value.substring(10,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(11,1).toInteger())+(select(value.substring(12,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(13,1).toInteger())+(select(value.substring(14,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(15,1).toInteger()))mod 10=0)}</t>
+  </si>
+  <si>
     <t>Patient.identifier.id</t>
   </si>
   <si>
@@ -757,10 +761,6 @@
   </si>
   <si>
     <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>inv-ihi-0:IHI shall be an exactly 16 digit number {matches('^([0-9]{16})$')}
-inv-ihi-1:IHI prefix is 800360 {startsWith('800360')}inv-ihi-2:IHI shall pass the Luhn algorithm check {(((select(substring(0,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(substring(1,1).toInteger())+(select(substring(2,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(substring(3,1).toInteger())+(select(substring(4,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(substring(5,1).toInteger())+(select(substring(6,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(substring(7,1).toInteger())+(select(substring(8,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(substring(9,1).toInteger())+(select(substring(10,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(substring(11,1).toInteger())+(select(substring(12,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(substring(13,1).toInteger())+(select(substring(14,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(substring(15,1).toInteger()))mod 10=0)}</t>
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
@@ -4050,7 +4050,7 @@
         <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>135</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4093,13 +4093,13 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4150,7 +4150,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -4165,7 +4165,7 @@
         <v>44</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>44</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4253,7 +4253,7 @@
         <v>100</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>44</v>
@@ -4262,7 +4262,7 @@
         <v>101</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -4294,10 +4294,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>44</v>
@@ -4319,13 +4319,13 @@
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4376,7 +4376,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4431,13 +4431,13 @@
         <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4488,7 +4488,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4503,7 +4503,7 @@
         <v>44</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>44</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4546,10 +4546,10 @@
         <v>97</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>127</v>
@@ -4593,7 +4593,7 @@
         <v>100</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>44</v>
@@ -4602,7 +4602,7 @@
         <v>101</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4617,7 +4617,7 @@
         <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>44</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4660,13 +4660,13 @@
         <v>65</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>44</v>
@@ -4716,7 +4716,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>52</v>
@@ -4748,10 +4748,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>44</v>
@@ -4773,13 +4773,13 @@
         <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4806,13 +4806,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4830,7 +4830,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4862,10 +4862,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>44</v>
@@ -4887,13 +4887,13 @@
         <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4944,7 +4944,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4976,7 +4976,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4999,13 +4999,13 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5056,7 +5056,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -5071,7 +5071,7 @@
         <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>44</v>
@@ -5088,7 +5088,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5114,10 +5114,10 @@
         <v>97</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>127</v>
@@ -5161,7 +5161,7 @@
         <v>100</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>44</v>
@@ -5170,7 +5170,7 @@
         <v>101</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -5185,7 +5185,7 @@
         <v>44</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>44</v>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5228,13 +5228,13 @@
         <v>65</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>44</v>
@@ -5284,7 +5284,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>52</v>
@@ -5316,10 +5316,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>44</v>
@@ -5341,13 +5341,13 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5374,13 +5374,13 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -5398,7 +5398,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5456,16 +5456,16 @@
         <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -5490,13 +5490,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5514,7 +5514,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -5529,7 +5529,7 @@
         <v>44</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>44</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5569,19 +5569,19 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -5591,7 +5591,7 @@
         <v>44</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>44</v>
@@ -5606,13 +5606,13 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -5630,7 +5630,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5645,7 +5645,7 @@
         <v>44</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>44</v>
@@ -5654,7 +5654,7 @@
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5662,7 +5662,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5685,13 +5685,13 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5742,7 +5742,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5757,7 +5757,7 @@
         <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>44</v>
@@ -5774,7 +5774,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5800,10 +5800,10 @@
         <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>127</v>
@@ -5847,7 +5847,7 @@
         <v>100</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>44</v>
@@ -5856,7 +5856,7 @@
         <v>101</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5871,7 +5871,7 @@
         <v>44</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>44</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5911,19 +5911,19 @@
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5972,7 +5972,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5987,7 +5987,7 @@
         <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>44</v>
@@ -5996,7 +5996,7 @@
         <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6027,26 +6027,26 @@
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>44</v>
@@ -6088,7 +6088,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -6103,7 +6103,7 @@
         <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>44</v>
@@ -6112,7 +6112,7 @@
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -6120,7 +6120,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6146,27 +6146,27 @@
         <v>65</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>44</v>
@@ -6202,7 +6202,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -6217,7 +6217,7 @@
         <v>44</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>44</v>
@@ -6226,7 +6226,7 @@
         <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6257,16 +6257,16 @@
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6280,7 +6280,7 @@
         <v>44</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>44</v>
@@ -6289,7 +6289,7 @@
         <v>44</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="W36" t="s" s="2">
         <v>44</v>
@@ -6316,7 +6316,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -6328,7 +6328,7 @@
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>237</v>
@@ -6690,7 +6690,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6713,13 +6713,13 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6770,7 +6770,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6785,7 +6785,7 @@
         <v>44</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>44</v>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6828,10 +6828,10 @@
         <v>97</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>127</v>
@@ -6875,7 +6875,7 @@
         <v>100</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>44</v>
@@ -6884,7 +6884,7 @@
         <v>101</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6899,7 +6899,7 @@
         <v>44</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>44</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6942,16 +6942,16 @@
         <v>71</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6976,13 +6976,13 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -7000,7 +7000,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -7015,7 +7015,7 @@
         <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>44</v>
@@ -7032,7 +7032,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7055,7 +7055,7 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>257</v>
@@ -7064,10 +7064,10 @@
         <v>258</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -7092,13 +7092,13 @@
         <v>44</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>44</v>
@@ -7116,7 +7116,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -7131,7 +7131,7 @@
         <v>44</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>44</v>
@@ -7140,7 +7140,7 @@
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -7148,7 +7148,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7171,13 +7171,13 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7228,7 +7228,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -7243,7 +7243,7 @@
         <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
@@ -7260,7 +7260,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7286,10 +7286,10 @@
         <v>97</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>127</v>
@@ -7333,7 +7333,7 @@
         <v>100</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>44</v>
@@ -7342,7 +7342,7 @@
         <v>101</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -7357,7 +7357,7 @@
         <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>44</v>
@@ -7374,7 +7374,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7397,19 +7397,19 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -7458,7 +7458,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7473,7 +7473,7 @@
         <v>44</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>44</v>
@@ -7482,7 +7482,7 @@
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7513,19 +7513,19 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>260</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -7574,7 +7574,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7589,7 +7589,7 @@
         <v>44</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>44</v>
@@ -7598,7 +7598,7 @@
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -7606,7 +7606,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -7652,7 +7652,7 @@
         <v>44</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>44</v>
@@ -7688,7 +7688,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7703,7 +7703,7 @@
         <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>44</v>
@@ -7712,7 +7712,7 @@
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -7720,7 +7720,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7743,7 +7743,7 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>265</v>
@@ -7752,7 +7752,7 @@
         <v>266</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7766,7 +7766,7 @@
         <v>44</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>44</v>
@@ -7802,7 +7802,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7969,13 +7969,13 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8026,7 +8026,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -8041,7 +8041,7 @@
         <v>44</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>44</v>
@@ -8084,10 +8084,10 @@
         <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>127</v>
@@ -8131,7 +8131,7 @@
         <v>100</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>44</v>
@@ -8140,7 +8140,7 @@
         <v>101</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -8155,7 +8155,7 @@
         <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>44</v>
@@ -8632,7 +8632,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8655,13 +8655,13 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8712,7 +8712,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8727,7 +8727,7 @@
         <v>44</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>44</v>
@@ -8744,7 +8744,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8770,10 +8770,10 @@
         <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>127</v>
@@ -8817,7 +8817,7 @@
         <v>100</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>44</v>
@@ -8826,7 +8826,7 @@
         <v>101</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8841,7 +8841,7 @@
         <v>44</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>44</v>
@@ -8858,7 +8858,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8884,16 +8884,16 @@
         <v>71</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8918,13 +8918,13 @@
         <v>44</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>44</v>
@@ -8942,7 +8942,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8957,7 +8957,7 @@
         <v>44</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>44</v>
@@ -8974,7 +8974,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8997,7 +8997,7 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>292</v>
@@ -9006,10 +9006,10 @@
         <v>293</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
@@ -9034,13 +9034,13 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
@@ -9058,7 +9058,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -9073,7 +9073,7 @@
         <v>44</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>44</v>
@@ -9082,7 +9082,7 @@
         <v>44</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -9090,7 +9090,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9113,13 +9113,13 @@
         <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9170,7 +9170,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -9185,7 +9185,7 @@
         <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>44</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9228,10 +9228,10 @@
         <v>97</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>127</v>
@@ -9275,7 +9275,7 @@
         <v>100</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>44</v>
@@ -9284,7 +9284,7 @@
         <v>101</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -9299,7 +9299,7 @@
         <v>44</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>44</v>
@@ -9316,7 +9316,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9339,19 +9339,19 @@
         <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
@@ -9400,7 +9400,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9415,7 +9415,7 @@
         <v>44</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>44</v>
@@ -9424,7 +9424,7 @@
         <v>44</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>44</v>
@@ -9432,7 +9432,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9455,19 +9455,19 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>294</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>44</v>
@@ -9516,7 +9516,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9531,7 +9531,7 @@
         <v>44</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>44</v>
@@ -9540,7 +9540,7 @@
         <v>44</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>44</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9594,7 +9594,7 @@
         <v>44</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>44</v>
@@ -9630,7 +9630,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9645,7 +9645,7 @@
         <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>44</v>
@@ -9654,7 +9654,7 @@
         <v>44</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>44</v>
@@ -9662,7 +9662,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9685,7 +9685,7 @@
         <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>298</v>
@@ -9708,7 +9708,7 @@
         <v>44</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>44</v>
@@ -9744,7 +9744,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -10118,7 +10118,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10141,13 +10141,13 @@
         <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10198,7 +10198,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -10213,7 +10213,7 @@
         <v>44</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>44</v>
@@ -10230,7 +10230,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10256,10 +10256,10 @@
         <v>97</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>127</v>
@@ -10303,7 +10303,7 @@
         <v>100</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>44</v>
@@ -10312,7 +10312,7 @@
         <v>101</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10327,7 +10327,7 @@
         <v>44</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>44</v>
@@ -10344,7 +10344,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10370,16 +10370,16 @@
         <v>71</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>44</v>
@@ -10404,13 +10404,13 @@
         <v>44</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>44</v>
@@ -10428,7 +10428,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10443,7 +10443,7 @@
         <v>44</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>44</v>
@@ -10460,7 +10460,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10483,7 +10483,7 @@
         <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>305</v>
@@ -10492,10 +10492,10 @@
         <v>304</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>44</v>
@@ -10520,13 +10520,13 @@
         <v>44</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>44</v>
@@ -10544,7 +10544,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10559,7 +10559,7 @@
         <v>44</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>44</v>
@@ -10568,7 +10568,7 @@
         <v>44</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>44</v>
@@ -10576,7 +10576,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10599,13 +10599,13 @@
         <v>44</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10656,7 +10656,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10671,7 +10671,7 @@
         <v>44</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>44</v>
@@ -10688,7 +10688,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10714,10 +10714,10 @@
         <v>97</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>127</v>
@@ -10761,7 +10761,7 @@
         <v>100</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>44</v>
@@ -10770,7 +10770,7 @@
         <v>101</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10785,7 +10785,7 @@
         <v>44</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>44</v>
@@ -10802,7 +10802,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10825,19 +10825,19 @@
         <v>53</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>44</v>
@@ -10886,7 +10886,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10901,7 +10901,7 @@
         <v>44</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>44</v>
@@ -10910,7 +10910,7 @@
         <v>44</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>44</v>
@@ -10918,7 +10918,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10941,19 +10941,19 @@
         <v>53</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>307</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>44</v>
@@ -11002,7 +11002,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -11017,7 +11017,7 @@
         <v>44</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>44</v>
@@ -11026,7 +11026,7 @@
         <v>44</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>44</v>
@@ -11034,7 +11034,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>44</v>
@@ -11080,7 +11080,7 @@
         <v>44</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>44</v>
@@ -11116,7 +11116,7 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -11131,7 +11131,7 @@
         <v>44</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>44</v>
@@ -11140,7 +11140,7 @@
         <v>44</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>44</v>
@@ -11148,7 +11148,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11171,7 +11171,7 @@
         <v>53</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>312</v>
@@ -11194,7 +11194,7 @@
         <v>44</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>44</v>
@@ -11230,7 +11230,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11627,13 +11627,13 @@
         <v>44</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11684,7 +11684,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11699,7 +11699,7 @@
         <v>44</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>44</v>
@@ -11716,7 +11716,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11742,10 +11742,10 @@
         <v>97</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>127</v>
@@ -11789,7 +11789,7 @@
         <v>100</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>44</v>
@@ -11798,7 +11798,7 @@
         <v>101</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11813,7 +11813,7 @@
         <v>44</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>44</v>
@@ -11830,7 +11830,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11856,16 +11856,16 @@
         <v>71</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>44</v>
@@ -11890,13 +11890,13 @@
         <v>44</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>44</v>
@@ -11914,7 +11914,7 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11929,7 +11929,7 @@
         <v>44</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>44</v>
@@ -11946,7 +11946,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11969,7 +11969,7 @@
         <v>53</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>319</v>
@@ -11978,10 +11978,10 @@
         <v>318</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>44</v>
@@ -12006,13 +12006,13 @@
         <v>44</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>44</v>
@@ -12030,7 +12030,7 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -12045,7 +12045,7 @@
         <v>44</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>44</v>
@@ -12054,7 +12054,7 @@
         <v>44</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>44</v>
@@ -12062,7 +12062,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12085,13 +12085,13 @@
         <v>44</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12142,7 +12142,7 @@
         <v>44</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -12157,7 +12157,7 @@
         <v>44</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>44</v>
@@ -12174,7 +12174,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12200,10 +12200,10 @@
         <v>97</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>127</v>
@@ -12247,7 +12247,7 @@
         <v>100</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>44</v>
@@ -12256,7 +12256,7 @@
         <v>101</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -12271,7 +12271,7 @@
         <v>44</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>44</v>
@@ -12288,7 +12288,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12311,19 +12311,19 @@
         <v>53</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>44</v>
@@ -12372,7 +12372,7 @@
         <v>44</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -12387,7 +12387,7 @@
         <v>44</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>44</v>
@@ -12396,7 +12396,7 @@
         <v>44</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>44</v>
@@ -12404,7 +12404,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12427,19 +12427,19 @@
         <v>53</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>307</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>44</v>
@@ -12488,7 +12488,7 @@
         <v>44</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12503,7 +12503,7 @@
         <v>44</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>44</v>
@@ -12512,7 +12512,7 @@
         <v>44</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>44</v>
@@ -12520,7 +12520,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12553,7 +12553,7 @@
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>44</v>
@@ -12566,7 +12566,7 @@
         <v>44</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>44</v>
@@ -12602,7 +12602,7 @@
         <v>44</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12617,7 +12617,7 @@
         <v>44</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>44</v>
@@ -12626,7 +12626,7 @@
         <v>44</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>44</v>
@@ -12634,7 +12634,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12657,7 +12657,7 @@
         <v>53</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>312</v>
@@ -12680,7 +12680,7 @@
         <v>44</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>44</v>
@@ -12716,7 +12716,7 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -13090,7 +13090,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13113,13 +13113,13 @@
         <v>44</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13170,7 +13170,7 @@
         <v>44</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -13185,7 +13185,7 @@
         <v>44</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>44</v>
@@ -13202,7 +13202,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13228,10 +13228,10 @@
         <v>97</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>127</v>
@@ -13275,7 +13275,7 @@
         <v>100</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC97" t="s" s="2">
         <v>44</v>
@@ -13284,7 +13284,7 @@
         <v>101</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -13299,7 +13299,7 @@
         <v>44</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>44</v>
@@ -13316,7 +13316,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13342,16 +13342,16 @@
         <v>71</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>44</v>
@@ -13376,13 +13376,13 @@
         <v>44</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>44</v>
@@ -13400,7 +13400,7 @@
         <v>44</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -13415,7 +13415,7 @@
         <v>44</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>44</v>
@@ -13432,7 +13432,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13455,7 +13455,7 @@
         <v>53</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>324</v>
@@ -13464,10 +13464,10 @@
         <v>304</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>44</v>
@@ -13492,13 +13492,13 @@
         <v>44</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>44</v>
@@ -13516,7 +13516,7 @@
         <v>44</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -13531,7 +13531,7 @@
         <v>44</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>44</v>
@@ -13540,7 +13540,7 @@
         <v>44</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>44</v>
@@ -13548,7 +13548,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13571,13 +13571,13 @@
         <v>44</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13628,7 +13628,7 @@
         <v>44</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13643,7 +13643,7 @@
         <v>44</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>44</v>
@@ -13660,7 +13660,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13686,10 +13686,10 @@
         <v>97</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>127</v>
@@ -13733,7 +13733,7 @@
         <v>100</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC101" t="s" s="2">
         <v>44</v>
@@ -13742,7 +13742,7 @@
         <v>101</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
@@ -13757,7 +13757,7 @@
         <v>44</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>44</v>
@@ -13774,7 +13774,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13797,19 +13797,19 @@
         <v>53</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>44</v>
@@ -13858,7 +13858,7 @@
         <v>44</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
@@ -13873,7 +13873,7 @@
         <v>44</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>44</v>
@@ -13882,7 +13882,7 @@
         <v>44</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>44</v>
@@ -13890,7 +13890,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13913,19 +13913,19 @@
         <v>53</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>307</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>44</v>
@@ -13974,7 +13974,7 @@
         <v>44</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
@@ -13989,7 +13989,7 @@
         <v>44</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>44</v>
@@ -13998,7 +13998,7 @@
         <v>44</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>44</v>
@@ -14006,7 +14006,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14039,7 +14039,7 @@
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>44</v>
@@ -14052,7 +14052,7 @@
         <v>44</v>
       </c>
       <c r="S104" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T104" t="s" s="2">
         <v>44</v>
@@ -14088,7 +14088,7 @@
         <v>44</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
@@ -14103,7 +14103,7 @@
         <v>44</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>44</v>
@@ -14112,7 +14112,7 @@
         <v>44</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>44</v>
@@ -14120,7 +14120,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14143,7 +14143,7 @@
         <v>53</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>312</v>
@@ -14166,7 +14166,7 @@
         <v>44</v>
       </c>
       <c r="S105" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T105" t="s" s="2">
         <v>44</v>
@@ -14202,7 +14202,7 @@
         <v>44</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
@@ -14576,7 +14576,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14599,13 +14599,13 @@
         <v>44</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14656,7 +14656,7 @@
         <v>44</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
@@ -14671,7 +14671,7 @@
         <v>44</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>44</v>
@@ -14688,7 +14688,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14714,10 +14714,10 @@
         <v>97</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>127</v>
@@ -14761,7 +14761,7 @@
         <v>100</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC110" t="s" s="2">
         <v>44</v>
@@ -14770,7 +14770,7 @@
         <v>101</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
@@ -14785,7 +14785,7 @@
         <v>44</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>44</v>
@@ -14802,7 +14802,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14828,16 +14828,16 @@
         <v>71</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>44</v>
@@ -14862,13 +14862,13 @@
         <v>44</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>44</v>
@@ -14886,7 +14886,7 @@
         <v>44</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
@@ -14901,7 +14901,7 @@
         <v>44</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>44</v>
@@ -14918,7 +14918,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14941,7 +14941,7 @@
         <v>53</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>332</v>
@@ -14950,10 +14950,10 @@
         <v>333</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>44</v>
@@ -14978,13 +14978,13 @@
         <v>44</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>44</v>
@@ -15002,7 +15002,7 @@
         <v>44</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
@@ -15017,7 +15017,7 @@
         <v>44</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>44</v>
@@ -15026,7 +15026,7 @@
         <v>44</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>44</v>
@@ -15034,7 +15034,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15057,13 +15057,13 @@
         <v>44</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15114,7 +15114,7 @@
         <v>44</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>42</v>
@@ -15129,7 +15129,7 @@
         <v>44</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>44</v>
@@ -15146,7 +15146,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15172,10 +15172,10 @@
         <v>97</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>127</v>
@@ -15219,7 +15219,7 @@
         <v>100</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC114" t="s" s="2">
         <v>44</v>
@@ -15228,7 +15228,7 @@
         <v>101</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>42</v>
@@ -15243,7 +15243,7 @@
         <v>44</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>44</v>
@@ -15260,7 +15260,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15283,19 +15283,19 @@
         <v>53</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>44</v>
@@ -15344,7 +15344,7 @@
         <v>44</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>42</v>
@@ -15359,7 +15359,7 @@
         <v>44</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>44</v>
@@ -15368,7 +15368,7 @@
         <v>44</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>44</v>
@@ -15376,7 +15376,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15399,19 +15399,19 @@
         <v>53</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L116" t="s" s="2">
         <v>307</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>44</v>
@@ -15460,7 +15460,7 @@
         <v>44</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>42</v>
@@ -15475,7 +15475,7 @@
         <v>44</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>44</v>
@@ -15484,7 +15484,7 @@
         <v>44</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>44</v>
@@ -15492,7 +15492,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15525,7 +15525,7 @@
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>44</v>
@@ -15538,7 +15538,7 @@
         <v>44</v>
       </c>
       <c r="S117" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T117" t="s" s="2">
         <v>44</v>
@@ -15574,7 +15574,7 @@
         <v>44</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>42</v>
@@ -15589,7 +15589,7 @@
         <v>44</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>44</v>
@@ -15598,7 +15598,7 @@
         <v>44</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>44</v>
@@ -15606,7 +15606,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15629,7 +15629,7 @@
         <v>53</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>338</v>
@@ -15638,7 +15638,7 @@
         <v>339</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -15652,7 +15652,7 @@
         <v>44</v>
       </c>
       <c r="S118" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T118" t="s" s="2">
         <v>44</v>
@@ -15688,7 +15688,7 @@
         <v>44</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>42</v>
@@ -16062,7 +16062,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16085,13 +16085,13 @@
         <v>44</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -16142,7 +16142,7 @@
         <v>44</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>42</v>
@@ -16157,7 +16157,7 @@
         <v>44</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>44</v>
@@ -16174,7 +16174,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16200,10 +16200,10 @@
         <v>97</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M123" t="s" s="2">
         <v>127</v>
@@ -16247,7 +16247,7 @@
         <v>100</v>
       </c>
       <c r="AB123" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC123" t="s" s="2">
         <v>44</v>
@@ -16256,7 +16256,7 @@
         <v>101</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>42</v>
@@ -16271,7 +16271,7 @@
         <v>44</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>44</v>
@@ -16288,7 +16288,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16314,16 +16314,16 @@
         <v>71</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>44</v>
@@ -16348,13 +16348,13 @@
         <v>44</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>44</v>
@@ -16372,7 +16372,7 @@
         <v>44</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
@@ -16387,7 +16387,7 @@
         <v>44</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>44</v>
@@ -16404,7 +16404,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16427,7 +16427,7 @@
         <v>53</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>344</v>
@@ -16436,10 +16436,10 @@
         <v>333</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>44</v>
@@ -16464,13 +16464,13 @@
         <v>44</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>44</v>
@@ -16488,7 +16488,7 @@
         <v>44</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>42</v>
@@ -16503,7 +16503,7 @@
         <v>44</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>44</v>
@@ -16512,7 +16512,7 @@
         <v>44</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>44</v>
@@ -16520,7 +16520,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16543,13 +16543,13 @@
         <v>44</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -16600,7 +16600,7 @@
         <v>44</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>42</v>
@@ -16615,7 +16615,7 @@
         <v>44</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>44</v>
@@ -16632,7 +16632,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16658,10 +16658,10 @@
         <v>97</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>127</v>
@@ -16705,7 +16705,7 @@
         <v>100</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC127" t="s" s="2">
         <v>44</v>
@@ -16714,7 +16714,7 @@
         <v>101</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>42</v>
@@ -16729,7 +16729,7 @@
         <v>44</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>44</v>
@@ -16746,7 +16746,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16769,19 +16769,19 @@
         <v>53</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>44</v>
@@ -16830,7 +16830,7 @@
         <v>44</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>42</v>
@@ -16845,7 +16845,7 @@
         <v>44</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>44</v>
@@ -16854,7 +16854,7 @@
         <v>44</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>44</v>
@@ -16862,7 +16862,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16885,19 +16885,19 @@
         <v>53</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L129" t="s" s="2">
         <v>307</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>44</v>
@@ -16946,7 +16946,7 @@
         <v>44</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>42</v>
@@ -16961,7 +16961,7 @@
         <v>44</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>44</v>
@@ -16970,7 +16970,7 @@
         <v>44</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>44</v>
@@ -16978,7 +16978,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17011,7 +17011,7 @@
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>44</v>
@@ -17024,7 +17024,7 @@
         <v>44</v>
       </c>
       <c r="S130" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T130" t="s" s="2">
         <v>44</v>
@@ -17060,7 +17060,7 @@
         <v>44</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>42</v>
@@ -17075,7 +17075,7 @@
         <v>44</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>44</v>
@@ -17084,7 +17084,7 @@
         <v>44</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>44</v>
@@ -17092,7 +17092,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17115,7 +17115,7 @@
         <v>53</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>348</v>
@@ -17124,7 +17124,7 @@
         <v>339</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -17138,7 +17138,7 @@
         <v>44</v>
       </c>
       <c r="S131" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T131" t="s" s="2">
         <v>44</v>
@@ -17174,7 +17174,7 @@
         <v>44</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>42</v>
@@ -17455,13 +17455,13 @@
         <v>44</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -17512,7 +17512,7 @@
         <v>44</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>42</v>
@@ -17527,7 +17527,7 @@
         <v>44</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>44</v>
@@ -17570,10 +17570,10 @@
         <v>97</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M135" t="s" s="2">
         <v>127</v>
@@ -17617,7 +17617,7 @@
         <v>100</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC135" t="s" s="2">
         <v>44</v>
@@ -17626,7 +17626,7 @@
         <v>101</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>42</v>
@@ -17641,7 +17641,7 @@
         <v>44</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>44</v>
@@ -17681,7 +17681,7 @@
         <v>53</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>353</v>
@@ -17909,7 +17909,7 @@
         <v>53</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>365</v>
@@ -18102,7 +18102,7 @@
         <v>376</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>377</v>
@@ -18408,7 +18408,7 @@
         <v>44</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X142" t="s" s="2">
         <v>401</v>
@@ -18605,10 +18605,10 @@
         <v>44</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L144" t="s" s="2">
         <v>418</v>
@@ -18662,7 +18662,7 @@
         <v>44</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>42</v>
@@ -18772,7 +18772,7 @@
         <v>101</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>42</v>
@@ -18888,7 +18888,7 @@
         <v>44</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>42</v>
@@ -19002,7 +19002,7 @@
         <v>44</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>42</v>
@@ -19248,7 +19248,7 @@
         <v>440</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>44</v>
@@ -19366,7 +19366,7 @@
         <v>440</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>44</v>
@@ -19484,7 +19484,7 @@
         <v>440</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>44</v>
@@ -19602,7 +19602,7 @@
         <v>440</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>44</v>
@@ -19720,7 +19720,7 @@
         <v>440</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>44</v>
@@ -19757,10 +19757,10 @@
         <v>44</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L154" t="s" s="2">
         <v>418</v>
@@ -19814,7 +19814,7 @@
         <v>44</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>42</v>
@@ -19924,7 +19924,7 @@
         <v>101</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>42</v>
@@ -20040,7 +20040,7 @@
         <v>44</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>42</v>
@@ -20323,7 +20323,7 @@
         <v>44</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K159" t="s" s="2">
         <v>470</v>
@@ -20516,7 +20516,7 @@
         <v>484</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>44</v>
@@ -20630,7 +20630,7 @@
         <v>491</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>44</v>
@@ -20746,7 +20746,7 @@
         <v>500</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>44</v>
@@ -20783,13 +20783,13 @@
         <v>44</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
@@ -20840,7 +20840,7 @@
         <v>44</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>42</v>
@@ -20855,7 +20855,7 @@
         <v>44</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>44</v>
@@ -20898,10 +20898,10 @@
         <v>97</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M164" t="s" s="2">
         <v>127</v>
@@ -20954,7 +20954,7 @@
         <v>44</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>42</v>
@@ -20969,7 +20969,7 @@
         <v>44</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>44</v>
@@ -21123,7 +21123,7 @@
         <v>44</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>508</v>
@@ -21198,7 +21198,7 @@
         <v>512</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL166" t="s" s="2">
         <v>44</v>
@@ -21312,7 +21312,7 @@
         <v>384</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>44</v>
@@ -21428,7 +21428,7 @@
         <v>393</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>44</v>
@@ -21542,7 +21542,7 @@
         <v>466</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>44</v>
@@ -21614,7 +21614,7 @@
         <v>44</v>
       </c>
       <c r="W170" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X170" t="s" s="2">
         <v>401</v>
@@ -21656,7 +21656,7 @@
         <v>403</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>44</v>
@@ -21770,7 +21770,7 @@
         <v>539</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>44</v>
@@ -21882,7 +21882,7 @@
         <v>544</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL172" t="s" s="2">
         <v>44</v>
@@ -21998,7 +21998,7 @@
         <v>551</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>44</v>
@@ -22035,13 +22035,13 @@
         <v>44</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -22092,7 +22092,7 @@
         <v>44</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>42</v>
@@ -22107,7 +22107,7 @@
         <v>44</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>44</v>
@@ -22150,10 +22150,10 @@
         <v>97</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M175" t="s" s="2">
         <v>127</v>
@@ -22206,7 +22206,7 @@
         <v>44</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>42</v>
@@ -22221,7 +22221,7 @@
         <v>44</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>44</v>
@@ -22375,7 +22375,7 @@
         <v>53</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K177" t="s" s="2">
         <v>556</v>
@@ -22454,7 +22454,7 @@
         <v>512</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL177" t="s" s="2">
         <v>44</v>
@@ -22491,7 +22491,7 @@
         <v>53</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K178" t="s" s="2">
         <v>565</v>
@@ -22570,7 +22570,7 @@
         <v>571</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>44</v>
@@ -22607,7 +22607,7 @@
         <v>53</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K179" t="s" s="2">
         <v>574</v>
@@ -22684,7 +22684,7 @@
         <v>579</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL179" t="s" s="2">
         <v>44</v>
@@ -22837,13 +22837,13 @@
         <v>44</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
@@ -22894,7 +22894,7 @@
         <v>44</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>42</v>
@@ -22909,7 +22909,7 @@
         <v>44</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK181" t="s" s="2">
         <v>44</v>
@@ -22952,10 +22952,10 @@
         <v>97</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M182" t="s" s="2">
         <v>127</v>
@@ -23008,7 +23008,7 @@
         <v>44</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>42</v>
@@ -23023,7 +23023,7 @@
         <v>44</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK182" t="s" s="2">
         <v>44</v>
@@ -23177,7 +23177,7 @@
         <v>44</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K184" t="s" s="2">
         <v>591</v>
@@ -23486,7 +23486,7 @@
         <v>614</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL186" t="s" s="2">
         <v>44</v>
@@ -23720,7 +23720,7 @@
         <v>628</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL188" t="s" s="2">
         <v>44</v>
@@ -23757,13 +23757,13 @@
         <v>44</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -23814,7 +23814,7 @@
         <v>44</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>42</v>
@@ -23829,7 +23829,7 @@
         <v>44</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK189" t="s" s="2">
         <v>44</v>
@@ -23872,10 +23872,10 @@
         <v>97</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M190" t="s" s="2">
         <v>127</v>
@@ -23928,7 +23928,7 @@
         <v>44</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>42</v>
@@ -23943,7 +23943,7 @@
         <v>44</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK190" t="s" s="2">
         <v>44</v>
@@ -24174,7 +24174,7 @@
         <v>135</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL192" t="s" s="2">
         <v>44</v>
@@ -24244,7 +24244,7 @@
         <v>44</v>
       </c>
       <c r="W193" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X193" t="s" s="2">
         <v>640</v>
@@ -24286,7 +24286,7 @@
         <v>642</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL193" t="s" s="2">
         <v>44</v>

--- a/output/PersonalHealthRecords/patient-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/patient-ihi-1.xlsx
@@ -5554,7 +5554,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>52</v>
@@ -7040,7 +7040,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>

--- a/output/PersonalHealthRecords/patient-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/patient-ihi-1.xlsx
@@ -5554,7 +5554,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>52</v>
@@ -7040,7 +7040,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>

--- a/output/PersonalHealthRecords/patient-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/patient-ihi-1.xlsx
@@ -381,10 +381,10 @@
 </t>
   </si>
   <si>
-    <t>Closing the gap registration</t>
-  </si>
-  <si>
-    <t>Closing the Gap registration indicator for an Australian patient.</t>
+    <t>Patient Closing the Gap Program Eligibility Indication</t>
+  </si>
+  <si>
+    <t>Indication for eligibility for the Closing the Gap program.</t>
   </si>
   <si>
     <t>mothersMaidenName</t>
@@ -19857,7 +19857,7 @@
         <v>42</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>44</v>

--- a/output/PersonalHealthRecords/patient-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/patient-ihi-1.xlsx
@@ -381,10 +381,10 @@
 </t>
   </si>
   <si>
-    <t>Patient Closing the Gap Program Eligibility Indication</t>
-  </si>
-  <si>
-    <t>Indication for eligibility for the Closing the Gap program.</t>
+    <t>Closing the gap registration</t>
+  </si>
+  <si>
+    <t>Closing the Gap registration indicator for an Australian patient.</t>
   </si>
   <si>
     <t>mothersMaidenName</t>
@@ -2193,7 +2193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO193"/>
+  <dimension ref="A1:AN193"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -19857,7 +19857,7 @@
         <v>42</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>44</v>

--- a/output/PersonalHealthRecords/patient-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/patient-ihi-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="639">
   <si>
     <t>Path</t>
   </si>
@@ -181,7 +181,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -200,7 +200,7 @@
     <t>Patient.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -216,7 +216,7 @@
     <t>Patient.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
     <t>Patient.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -268,7 +268,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -298,7 +298,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -320,7 +320,7 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -343,7 +343,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/birthPlace]]} {[]}
+    <t xml:space="preserve">Extension {birthPlace}
 </t>
   </si>
   <si>
@@ -364,7 +364,7 @@
     <t>indigenousStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/indigenous-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/indigenous-status}
 </t>
   </si>
   <si>
@@ -377,20 +377,20 @@
     <t>closingTheGapRegistration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/closing-the-gap-registration]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/closing-the-gap-registration}
 </t>
   </si>
   <si>
-    <t>Closing the gap registration</t>
-  </si>
-  <si>
-    <t>Closing the Gap registration indicator for an Australian patient.</t>
+    <t>Patient Closing the Gap Program Eligibility Indication</t>
+  </si>
+  <si>
+    <t>Indication for eligibility for the Closing the Gap program.</t>
   </si>
   <si>
     <t>mothersMaidenName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/patient-mothersMaidenName]]} {[]}
+    <t xml:space="preserve">Extension {patient-mothersMaidenName}
 </t>
   </si>
   <si>
@@ -428,7 +428,7 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -470,7 +470,7 @@
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>ihiStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-status}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-status"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-status</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -544,7 +544,7 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -566,7 +566,7 @@
     <t>ihiRecordStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-record-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-record-status}
 </t>
   </si>
   <si>
@@ -576,7 +576,7 @@
     <t>Individual Healthcare Identifier (IHI) value record status associated with an IHI identifier.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-record-status"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-record-status</t>
   </si>
   <si>
     <t>IHI Record Status Code</t>
@@ -621,7 +621,7 @@
     <t>Patient.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -703,7 +703,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="IHI"/&gt;</t>
+    <t>IHI</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -727,10 +727,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/ihi/1.0"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/hi/ihi/1.0</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -754,7 +754,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>16</t>
@@ -772,7 +772,7 @@
     <t>Patient.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -842,16 +842,13 @@
     <t>Medicare number descriptive text.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medicare Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Medicare number</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/medicare-number</t>
   </si>
   <si>
     <t>Medicare number including optional individual reference number</t>
@@ -875,7 +872,7 @@
     <t>Patient.identifier.period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -953,7 +950,7 @@
     <t>DVA number assigned uri.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/dva"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/dva</t>
   </si>
   <si>
     <t>DVA number</t>
@@ -991,16 +988,13 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Health Care Card Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN)</t>
   </si>
   <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN) values.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/centrelink-customer-reference-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/centrelink-customer-reference-number</t>
   </si>
   <si>
     <t>Centrelink CRN</t>
@@ -1035,9 +1029,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Pensioner Concession Card Number"/&gt;</t>
-  </si>
-  <si>
     <t>commonwealthSeniorsHealthCard</t>
   </si>
   <si>
@@ -1055,7 +1046,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Commonwealth Seniors Health Card"/&gt;</t>
+    <t>Commonwealth Seniors Health Card</t>
   </si>
   <si>
     <t>Namespace for Customer Reference Number (CRN) values.</t>
@@ -1087,7 +1078,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical Record Number"/&gt;</t>
+    <t>Medical Record Number</t>
   </si>
   <si>
     <t>Medical record number system namespace</t>
@@ -1125,9 +1116,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Private Health Insurance Member Number"/&gt;</t>
-  </si>
-  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -1200,7 +1188,7 @@
     <t>Patient.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -1217,7 +1205,7 @@
     <t>Need to be able to mark a patient record as not to be used because it was created in error.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
+    <t>true</t>
   </si>
   <si>
     <t>statusCode</t>
@@ -1229,7 +1217,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
+    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
 </t>
   </si>
   <si>
@@ -1257,7 +1245,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -1318,7 +1306,7 @@
     <t>Birth Date</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -1358,7 +1346,7 @@
     <t>accuracyIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/date-accuracy-indicator]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/date-accuracy-indicator}
 </t>
   </si>
   <si>
@@ -1374,7 +1362,7 @@
     <t>birthTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/patient-birthTime]]} {[]}
+    <t xml:space="preserve">Extension {patient-birthTime}
 </t>
   </si>
   <si>
@@ -1387,7 +1375,7 @@
     <t>Patient.birthDate.value</t>
   </si>
   <si>
-    <t xml:space="preserve">null {[]} {[]}
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
@@ -1403,8 +1391,8 @@
     <t>Patient.deceased[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-dateTime {[]} {[]}</t>
+    <t>boolean
+dateTime</t>
   </si>
   <si>
     <t>Indicates if the individual is deceased or not</t>
@@ -1484,7 +1472,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[]} {[]}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -1539,8 +1527,8 @@
     <t>Patient.multipleBirth[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-integer {[]} {[]}</t>
+    <t>boolean
+integer</t>
   </si>
   <si>
     <t>Whether patient is part of a multiple birth</t>
@@ -1566,7 +1554,7 @@
     <t>Patient.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -1588,7 +1576,7 @@
     <t>Patient.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1711,7 +1699,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1)
 </t>
   </si>
   <si>
@@ -1943,7 +1931,7 @@
     <t>General Practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1)
 </t>
   </si>
   <si>
@@ -2016,7 +2004,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -2097,67 +2085,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -2216,7 +2204,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -7532,7 +7520,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>44</v>
@@ -7632,10 +7620,10 @@
         <v>65</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
@@ -7646,7 +7634,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>44</v>
@@ -7746,10 +7734,10 @@
         <v>143</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>233</v>
@@ -7775,7 +7763,7 @@
         <v>44</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W49" t="s" s="2">
         <v>44</v>
@@ -7860,7 +7848,7 @@
         <v>240</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>242</v>
@@ -7946,7 +7934,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8058,7 +8046,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8172,7 +8160,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8195,16 +8183,16 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8254,31 +8242,31 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH53" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH53" t="s" s="2">
+      <c r="AI53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AI53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
+      <c r="AK53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -8286,7 +8274,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8309,92 +8297,92 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P54" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Q54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Q54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -8519,7 +8507,7 @@
         <v>129</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>44</v>
@@ -8544,10 +8532,10 @@
         <v>130</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
@@ -8612,7 +8600,7 @@
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>135</v>
@@ -9000,10 +8988,10 @@
         <v>192</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>195</v>
@@ -9461,7 +9449,7 @@
         <v>213</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>215</v>
@@ -9574,10 +9562,10 @@
         <v>65</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
@@ -9588,7 +9576,7 @@
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>44</v>
@@ -9688,13 +9676,13 @@
         <v>143</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9717,7 +9705,7 @@
         <v>44</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W66" t="s" s="2">
         <v>44</v>
@@ -10005,7 +9993,7 @@
         <v>129</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>44</v>
@@ -10030,10 +10018,10 @@
         <v>130</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
@@ -10486,10 +10474,10 @@
         <v>192</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>195</v>
@@ -10505,7 +10493,7 @@
         <v>44</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>44</v>
@@ -10947,7 +10935,7 @@
         <v>213</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>215</v>
@@ -10960,7 +10948,7 @@
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>44</v>
@@ -11060,10 +11048,10 @@
         <v>65</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
@@ -11074,7 +11062,7 @@
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>44</v>
@@ -11174,13 +11162,13 @@
         <v>143</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11203,7 +11191,7 @@
         <v>44</v>
       </c>
       <c r="V79" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="W79" t="s" s="2">
         <v>44</v>
@@ -11491,7 +11479,7 @@
         <v>129</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>44</v>
@@ -11516,10 +11504,10 @@
         <v>130</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
@@ -11972,10 +11960,10 @@
         <v>192</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>195</v>
@@ -11991,7 +11979,7 @@
         <v>44</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>44</v>
@@ -12433,7 +12421,7 @@
         <v>213</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>215</v>
@@ -12446,7 +12434,7 @@
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>44</v>
@@ -12546,10 +12534,10 @@
         <v>65</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
@@ -12560,7 +12548,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>44</v>
@@ -12660,13 +12648,13 @@
         <v>143</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12689,7 +12677,7 @@
         <v>44</v>
       </c>
       <c r="V92" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="W92" t="s" s="2">
         <v>44</v>
@@ -12977,7 +12965,7 @@
         <v>129</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>44</v>
@@ -13002,10 +12990,10 @@
         <v>130</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
@@ -13458,10 +13446,10 @@
         <v>192</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>195</v>
@@ -13477,7 +13465,7 @@
         <v>44</v>
       </c>
       <c r="R99" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>44</v>
@@ -13919,7 +13907,7 @@
         <v>213</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>215</v>
@@ -13932,7 +13920,7 @@
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>44</v>
@@ -14032,10 +14020,10 @@
         <v>65</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
@@ -14046,7 +14034,7 @@
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>44</v>
@@ -14146,13 +14134,13 @@
         <v>143</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14175,7 +14163,7 @@
         <v>44</v>
       </c>
       <c r="V105" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="W105" t="s" s="2">
         <v>44</v>
@@ -14463,7 +14451,7 @@
         <v>129</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>44</v>
@@ -14488,10 +14476,10 @@
         <v>130</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
@@ -14944,10 +14932,10 @@
         <v>192</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>195</v>
@@ -14963,7 +14951,7 @@
         <v>44</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>44</v>
@@ -15405,7 +15393,7 @@
         <v>213</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>215</v>
@@ -15418,7 +15406,7 @@
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="R116" t="s" s="2">
         <v>44</v>
@@ -15518,10 +15506,10 @@
         <v>65</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
@@ -15632,10 +15620,10 @@
         <v>143</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>233</v>
@@ -15858,7 +15846,7 @@
         <v>247</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>249</v>
@@ -15949,7 +15937,7 @@
         <v>129</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>44</v>
@@ -15974,10 +15962,10 @@
         <v>130</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
@@ -16430,10 +16418,10 @@
         <v>192</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>195</v>
@@ -16449,7 +16437,7 @@
         <v>44</v>
       </c>
       <c r="R125" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>44</v>
@@ -16891,7 +16879,7 @@
         <v>213</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>215</v>
@@ -16904,7 +16892,7 @@
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="R129" t="s" s="2">
         <v>44</v>
@@ -17004,10 +16992,10 @@
         <v>65</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
@@ -17118,10 +17106,10 @@
         <v>143</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>233</v>
@@ -17344,7 +17332,7 @@
         <v>247</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>249</v>
@@ -17432,7 +17420,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17544,7 +17532,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17658,7 +17646,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17684,13 +17672,13 @@
         <v>143</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -17740,7 +17728,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -17749,7 +17737,7 @@
         <v>52</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>44</v>
@@ -17772,7 +17760,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17798,13 +17786,13 @@
         <v>130</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -17854,7 +17842,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -17869,7 +17857,7 @@
         <v>44</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>44</v>
@@ -17886,7 +17874,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17912,13 +17900,13 @@
         <v>143</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -17968,7 +17956,7 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -18000,7 +17988,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18023,22 +18011,22 @@
         <v>53</v>
       </c>
       <c r="J139" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K139" t="s" s="2">
+      <c r="O139" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
@@ -18084,7 +18072,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18099,13 +18087,13 @@
         <v>44</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>44</v>
@@ -18116,7 +18104,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18139,19 +18127,19 @@
         <v>53</v>
       </c>
       <c r="J140" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>44</v>
@@ -18200,7 +18188,7 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -18215,16 +18203,16 @@
         <v>44</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>44</v>
@@ -18232,7 +18220,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18255,19 +18243,19 @@
         <v>53</v>
       </c>
       <c r="J141" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>44</v>
@@ -18316,7 +18304,7 @@
         <v>44</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>42</v>
@@ -18331,16 +18319,16 @@
         <v>44</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>44</v>
@@ -18348,7 +18336,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18374,16 +18362,16 @@
         <v>71</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>44</v>
@@ -18411,52 +18399,52 @@
         <v>169</v>
       </c>
       <c r="X142" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM142" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>44</v>
@@ -18464,14 +18452,14 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E143" t="s" s="2">
         <v>42</v>
@@ -18489,19 +18477,19 @@
         <v>53</v>
       </c>
       <c r="J143" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N143" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>44</v>
@@ -18550,7 +18538,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18565,24 +18553,24 @@
         <v>44</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18611,7 +18599,7 @@
         <v>144</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -18694,7 +18682,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18804,10 +18792,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>44</v>
@@ -18829,16 +18817,16 @@
         <v>44</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -18920,10 +18908,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>44</v>
@@ -18945,13 +18933,13 @@
         <v>44</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -19034,7 +19022,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19057,13 +19045,13 @@
         <v>44</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -19114,7 +19102,7 @@
         <v>44</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -19146,7 +19134,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19169,19 +19157,19 @@
         <v>53</v>
       </c>
       <c r="J149" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>44</v>
@@ -19230,7 +19218,7 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
@@ -19245,7 +19233,7 @@
         <v>44</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>147</v>
@@ -19254,7 +19242,7 @@
         <v>44</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>44</v>
@@ -19262,10 +19250,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C150" t="s" s="2">
         <v>44</v>
@@ -19287,19 +19275,19 @@
         <v>53</v>
       </c>
       <c r="J150" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>44</v>
@@ -19348,7 +19336,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19363,7 +19351,7 @@
         <v>44</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>147</v>
@@ -19372,7 +19360,7 @@
         <v>44</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>44</v>
@@ -19380,10 +19368,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>44</v>
@@ -19405,19 +19393,19 @@
         <v>53</v>
       </c>
       <c r="J151" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>44</v>
@@ -19466,7 +19454,7 @@
         <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -19481,7 +19469,7 @@
         <v>44</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>147</v>
@@ -19490,7 +19478,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19498,10 +19486,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>44</v>
@@ -19523,19 +19511,19 @@
         <v>53</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>44</v>
@@ -19584,7 +19572,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -19599,7 +19587,7 @@
         <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>147</v>
@@ -19608,7 +19596,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19616,10 +19604,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>44</v>
@@ -19641,19 +19629,19 @@
         <v>53</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>44</v>
@@ -19702,7 +19690,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19717,7 +19705,7 @@
         <v>44</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>147</v>
@@ -19726,7 +19714,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19734,7 +19722,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19763,7 +19751,7 @@
         <v>144</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -19846,7 +19834,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19857,7 +19845,7 @@
         <v>42</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>44</v>
@@ -19956,10 +19944,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>44</v>
@@ -19981,16 +19969,16 @@
         <v>44</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20052,7 +20040,7 @@
         <v>107</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>44</v>
@@ -20072,7 +20060,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20095,13 +20083,13 @@
         <v>44</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -20152,7 +20140,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20184,7 +20172,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20207,19 +20195,19 @@
         <v>53</v>
       </c>
       <c r="J158" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20268,7 +20256,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20283,16 +20271,16 @@
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20300,7 +20288,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20326,14 +20314,14 @@
         <v>192</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20361,52 +20349,52 @@
         <v>75</v>
       </c>
       <c r="X159" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM159" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20414,7 +20402,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20437,19 +20425,19 @@
         <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N160" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20498,7 +20486,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20513,7 +20501,7 @@
         <v>44</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>147</v>
@@ -20522,7 +20510,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20530,7 +20518,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20553,17 +20541,17 @@
         <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
@@ -20612,7 +20600,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20627,7 +20615,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>147</v>
@@ -20636,7 +20624,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20644,7 +20632,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20667,19 +20655,19 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N162" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20728,7 +20716,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20740,10 +20728,10 @@
         <v>44</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>147</v>
@@ -20760,7 +20748,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20872,7 +20860,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20986,11 +20974,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21015,7 +21003,7 @@
         <v>125</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>127</v>
@@ -21068,7 +21056,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21100,7 +21088,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21126,14 +21114,14 @@
         <v>192</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21162,7 +21150,7 @@
       </c>
       <c r="X166" s="2"/>
       <c r="Y166" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>44</v>
@@ -21180,7 +21168,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21195,7 +21183,7 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>147</v>
@@ -21204,7 +21192,7 @@
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21212,7 +21200,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21235,17 +21223,17 @@
         <v>44</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21294,7 +21282,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21309,7 +21297,7 @@
         <v>44</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>147</v>
@@ -21318,7 +21306,7 @@
         <v>44</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>44</v>
@@ -21326,7 +21314,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21349,19 +21337,19 @@
         <v>44</v>
       </c>
       <c r="J168" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N168" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="K168" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>44</v>
@@ -21410,7 +21398,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21425,7 +21413,7 @@
         <v>44</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>147</v>
@@ -21434,7 +21422,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21442,7 +21430,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21465,17 +21453,17 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21524,7 +21512,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21539,7 +21527,7 @@
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>147</v>
@@ -21548,7 +21536,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21556,7 +21544,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21582,14 +21570,14 @@
         <v>71</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21617,10 +21605,10 @@
         <v>169</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>44</v>
@@ -21638,7 +21626,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21653,7 +21641,7 @@
         <v>44</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>147</v>
@@ -21662,7 +21650,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21670,7 +21658,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21693,17 +21681,17 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21752,7 +21740,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21761,13 +21749,13 @@
         <v>52</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>147</v>
@@ -21776,7 +21764,7 @@
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21784,7 +21772,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21810,10 +21798,10 @@
         <v>240</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -21864,7 +21852,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21879,7 +21867,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>147</v>
@@ -21896,7 +21884,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21919,19 +21907,19 @@
         <v>53</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21980,7 +21968,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21992,10 +21980,10 @@
         <v>44</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>147</v>
@@ -22012,7 +22000,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22124,7 +22112,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22238,11 +22226,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22267,7 +22255,7 @@
         <v>125</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>127</v>
@@ -22320,7 +22308,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22352,7 +22340,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22378,16 +22366,16 @@
         <v>192</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22412,13 +22400,13 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
@@ -22436,7 +22424,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>52</v>
@@ -22451,7 +22439,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>147</v>
@@ -22460,7 +22448,7 @@
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22468,7 +22456,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22494,16 +22482,16 @@
         <v>192</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22528,32 +22516,32 @@
         <v>44</v>
       </c>
       <c r="W178" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE178" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="X178" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="Y178" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
       </c>
@@ -22567,7 +22555,7 @@
         <v>44</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>147</v>
@@ -22576,7 +22564,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22584,7 +22572,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22610,14 +22598,14 @@
         <v>192</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22642,13 +22630,13 @@
         <v>44</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>44</v>
@@ -22666,7 +22654,7 @@
         <v>44</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
@@ -22681,7 +22669,7 @@
         <v>44</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>147</v>
@@ -22698,7 +22686,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22721,19 +22709,19 @@
         <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22782,7 +22770,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22794,13 +22782,13 @@
         <v>44</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>44</v>
@@ -22814,7 +22802,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22926,7 +22914,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23040,11 +23028,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23069,7 +23057,7 @@
         <v>125</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>127</v>
@@ -23122,7 +23110,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23154,7 +23142,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23180,16 +23168,16 @@
         <v>192</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23218,7 +23206,7 @@
       </c>
       <c r="X184" s="2"/>
       <c r="Y184" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>44</v>
@@ -23236,7 +23224,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>52</v>
@@ -23251,16 +23239,16 @@
         <v>44</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23268,7 +23256,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23291,19 +23279,19 @@
         <v>44</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23352,7 +23340,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23367,16 +23355,16 @@
         <v>44</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23384,14 +23372,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>42</v>
@@ -23409,16 +23397,16 @@
         <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23468,7 +23456,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23483,7 +23471,7 @@
         <v>44</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>147</v>
@@ -23492,7 +23480,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23500,14 +23488,14 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E187" t="s" s="2">
         <v>42</v>
@@ -23525,19 +23513,19 @@
         <v>53</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23586,7 +23574,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23601,10 +23589,10 @@
         <v>44</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>44</v>
@@ -23618,7 +23606,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23641,19 +23629,19 @@
         <v>53</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23702,7 +23690,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23714,10 +23702,10 @@
         <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>147</v>
@@ -23734,7 +23722,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23846,7 +23834,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23960,11 +23948,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23989,7 +23977,7 @@
         <v>125</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>127</v>
@@ -24042,7 +24030,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24074,7 +24062,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24097,16 +24085,16 @@
         <v>53</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -24156,7 +24144,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>52</v>
@@ -24180,7 +24168,7 @@
         <v>44</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>44</v>
@@ -24188,7 +24176,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24214,10 +24202,10 @@
         <v>71</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24247,10 +24235,10 @@
         <v>169</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>44</v>
@@ -24268,22 +24256,22 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>147</v>

--- a/output/PersonalHealthRecords/patient-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/patient-ihi-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="643">
   <si>
     <t>Path</t>
   </si>
@@ -181,7 +181,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -200,7 +200,7 @@
     <t>Patient.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -216,7 +216,7 @@
     <t>Patient.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
     <t>Patient.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -268,7 +268,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -298,7 +298,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -320,7 +320,7 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -343,7 +343,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {birthPlace}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/birthPlace]]} {[]}
 </t>
   </si>
   <si>
@@ -364,7 +364,7 @@
     <t>indigenousStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/indigenous-status}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/indigenous-status]]} {[]}
 </t>
   </si>
   <si>
@@ -377,7 +377,7 @@
     <t>closingTheGapRegistration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/closing-the-gap-registration}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/closing-the-gap-registration]]} {[]}
 </t>
   </si>
   <si>
@@ -390,7 +390,7 @@
     <t>mothersMaidenName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-mothersMaidenName}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/patient-mothersMaidenName]]} {[]}
 </t>
   </si>
   <si>
@@ -428,7 +428,7 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -470,7 +470,7 @@
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>ihiStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-status}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-status]]} {[]}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-status</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-status"/&gt;</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -544,7 +544,7 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -566,7 +566,7 @@
     <t>ihiRecordStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-record-status}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-record-status]]} {[]}
 </t>
   </si>
   <si>
@@ -576,7 +576,7 @@
     <t>Individual Healthcare Identifier (IHI) value record status associated with an IHI identifier.</t>
   </si>
   <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-record-status</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-record-status"/&gt;</t>
   </si>
   <si>
     <t>IHI Record Status Code</t>
@@ -621,7 +621,7 @@
     <t>Patient.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -703,7 +703,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>IHI</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="IHI"/&gt;</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -727,10 +727,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/hi/ihi/1.0</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/ihi/1.0"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -754,7 +754,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>123456</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
   </si>
   <si>
     <t>16</t>
@@ -772,7 +772,7 @@
     <t>Patient.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">Period {[]} {[]}
 </t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
@@ -842,13 +842,16 @@
     <t>Medicare number descriptive text.</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medicare Number"/&gt;</t>
+  </si>
+  <si>
     <t>Namespace for Medicare number</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/medicare-number</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-number"/&gt;</t>
   </si>
   <si>
     <t>Medicare number including optional individual reference number</t>
@@ -872,7 +875,7 @@
     <t>Patient.identifier.period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
@@ -950,7 +953,7 @@
     <t>DVA number assigned uri.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/dva</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/dva"/&gt;</t>
   </si>
   <si>
     <t>DVA number</t>
@@ -988,13 +991,16 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Health Care Card Number"/&gt;</t>
+  </si>
+  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN)</t>
   </si>
   <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN) values.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/centrelink-customer-reference-number</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/centrelink-customer-reference-number"/&gt;</t>
   </si>
   <si>
     <t>Centrelink CRN</t>
@@ -1029,6 +1035,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Pensioner Concession Card Number"/&gt;</t>
+  </si>
+  <si>
     <t>commonwealthSeniorsHealthCard</t>
   </si>
   <si>
@@ -1046,7 +1055,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Commonwealth Seniors Health Card</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Commonwealth Seniors Health Card"/&gt;</t>
   </si>
   <si>
     <t>Namespace for Customer Reference Number (CRN) values.</t>
@@ -1078,7 +1087,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Medical Record Number</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical Record Number"/&gt;</t>
   </si>
   <si>
     <t>Medical record number system namespace</t>
@@ -1116,6 +1125,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Private Health Insurance Member Number"/&gt;</t>
+  </si>
+  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -1188,7 +1200,7 @@
     <t>Patient.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
@@ -1205,7 +1217,7 @@
     <t>Need to be able to mark a patient record as not to be used because it was created in error.</t>
   </si>
   <si>
-    <t>true</t>
+    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
   </si>
   <si>
     <t>statusCode</t>
@@ -1217,7 +1229,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
+    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
 </t>
   </si>
   <si>
@@ -1245,7 +1257,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
+    <t xml:space="preserve">ContactPoint {[]} {[]}
 </t>
   </si>
   <si>
@@ -1306,7 +1318,7 @@
     <t>Birth Date</t>
   </si>
   <si>
-    <t xml:space="preserve">date
+    <t xml:space="preserve">date {[]} {[]}
 </t>
   </si>
   <si>
@@ -1346,7 +1358,7 @@
     <t>accuracyIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/date-accuracy-indicator}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/date-accuracy-indicator]]} {[]}
 </t>
   </si>
   <si>
@@ -1362,7 +1374,7 @@
     <t>birthTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-birthTime}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/patient-birthTime]]} {[]}
 </t>
   </si>
   <si>
@@ -1375,7 +1387,7 @@
     <t>Patient.birthDate.value</t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t xml:space="preserve">null {[]} {[]}
 </t>
   </si>
   <si>
@@ -1391,8 +1403,8 @@
     <t>Patient.deceased[x]</t>
   </si>
   <si>
-    <t>boolean
-dateTime</t>
+    <t>boolean {[]} {[]}
+dateTime {[]} {[]}</t>
   </si>
   <si>
     <t>Indicates if the individual is deceased or not</t>
@@ -1472,7 +1484,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {[]} {[]}
 </t>
   </si>
   <si>
@@ -1527,8 +1539,8 @@
     <t>Patient.multipleBirth[x]</t>
   </si>
   <si>
-    <t>boolean
-integer</t>
+    <t>boolean {[]} {[]}
+integer {[]} {[]}</t>
   </si>
   <si>
     <t>Whether patient is part of a multiple birth</t>
@@ -1554,7 +1566,7 @@
     <t>Patient.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment
+    <t xml:space="preserve">Attachment {[]} {[]}
 </t>
   </si>
   <si>
@@ -1576,7 +1588,7 @@
     <t>Patient.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -1699,7 +1711,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1]]}
 </t>
   </si>
   <si>
@@ -1931,7 +1943,7 @@
     <t>General Practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1]]}
 </t>
   </si>
   <si>
@@ -2004,7 +2016,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
 </t>
   </si>
   <si>
@@ -2085,67 +2097,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -2181,7 +2193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN193"/>
+  <dimension ref="A1:AO193"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2204,7 +2216,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -7520,7 +7532,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>44</v>
@@ -7620,10 +7632,10 @@
         <v>65</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
@@ -7634,7 +7646,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>44</v>
@@ -7734,10 +7746,10 @@
         <v>143</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>233</v>
@@ -7763,7 +7775,7 @@
         <v>44</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W49" t="s" s="2">
         <v>44</v>
@@ -7848,7 +7860,7 @@
         <v>240</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>242</v>
@@ -7934,7 +7946,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8046,7 +8058,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8160,7 +8172,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8183,16 +8195,16 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8242,7 +8254,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -8251,13 +8263,13 @@
         <v>52</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>44</v>
@@ -8266,7 +8278,7 @@
         <v>44</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -8274,7 +8286,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8297,23 +8309,23 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q54" t="s" s="2">
         <v>44</v>
@@ -8358,7 +8370,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -8367,13 +8379,13 @@
         <v>52</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
@@ -8382,7 +8394,7 @@
         <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -8507,7 +8519,7 @@
         <v>129</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>44</v>
@@ -8532,10 +8544,10 @@
         <v>130</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
@@ -8600,7 +8612,7 @@
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>135</v>
@@ -8988,10 +9000,10 @@
         <v>192</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>195</v>
@@ -9449,7 +9461,7 @@
         <v>213</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>215</v>
@@ -9562,10 +9574,10 @@
         <v>65</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
@@ -9576,7 +9588,7 @@
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>44</v>
@@ -9676,13 +9688,13 @@
         <v>143</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9705,7 +9717,7 @@
         <v>44</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="W66" t="s" s="2">
         <v>44</v>
@@ -9993,7 +10005,7 @@
         <v>129</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>44</v>
@@ -10018,10 +10030,10 @@
         <v>130</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
@@ -10474,10 +10486,10 @@
         <v>192</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>195</v>
@@ -10493,7 +10505,7 @@
         <v>44</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>44</v>
@@ -10935,7 +10947,7 @@
         <v>213</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>215</v>
@@ -10948,7 +10960,7 @@
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>44</v>
@@ -11048,10 +11060,10 @@
         <v>65</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
@@ -11062,7 +11074,7 @@
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>44</v>
@@ -11162,13 +11174,13 @@
         <v>143</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11191,7 +11203,7 @@
         <v>44</v>
       </c>
       <c r="V79" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="W79" t="s" s="2">
         <v>44</v>
@@ -11479,7 +11491,7 @@
         <v>129</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>44</v>
@@ -11504,10 +11516,10 @@
         <v>130</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
@@ -11960,10 +11972,10 @@
         <v>192</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>195</v>
@@ -11979,7 +11991,7 @@
         <v>44</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>44</v>
@@ -12421,7 +12433,7 @@
         <v>213</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>215</v>
@@ -12434,7 +12446,7 @@
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>44</v>
@@ -12534,10 +12546,10 @@
         <v>65</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
@@ -12548,7 +12560,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>44</v>
@@ -12648,13 +12660,13 @@
         <v>143</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12677,7 +12689,7 @@
         <v>44</v>
       </c>
       <c r="V92" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="W92" t="s" s="2">
         <v>44</v>
@@ -12965,7 +12977,7 @@
         <v>129</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>44</v>
@@ -12990,10 +13002,10 @@
         <v>130</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
@@ -13446,10 +13458,10 @@
         <v>192</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>195</v>
@@ -13465,7 +13477,7 @@
         <v>44</v>
       </c>
       <c r="R99" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>44</v>
@@ -13907,7 +13919,7 @@
         <v>213</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>215</v>
@@ -13920,7 +13932,7 @@
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>44</v>
@@ -14020,10 +14032,10 @@
         <v>65</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
@@ -14034,7 +14046,7 @@
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>44</v>
@@ -14134,13 +14146,13 @@
         <v>143</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14163,7 +14175,7 @@
         <v>44</v>
       </c>
       <c r="V105" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="W105" t="s" s="2">
         <v>44</v>
@@ -14451,7 +14463,7 @@
         <v>129</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>44</v>
@@ -14476,10 +14488,10 @@
         <v>130</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
@@ -14932,10 +14944,10 @@
         <v>192</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>195</v>
@@ -14951,7 +14963,7 @@
         <v>44</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>44</v>
@@ -15393,7 +15405,7 @@
         <v>213</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>215</v>
@@ -15406,7 +15418,7 @@
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="R116" t="s" s="2">
         <v>44</v>
@@ -15506,10 +15518,10 @@
         <v>65</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
@@ -15620,10 +15632,10 @@
         <v>143</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>233</v>
@@ -15846,7 +15858,7 @@
         <v>247</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>249</v>
@@ -15937,7 +15949,7 @@
         <v>129</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>44</v>
@@ -15962,10 +15974,10 @@
         <v>130</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
@@ -16418,10 +16430,10 @@
         <v>192</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>195</v>
@@ -16437,7 +16449,7 @@
         <v>44</v>
       </c>
       <c r="R125" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>44</v>
@@ -16879,7 +16891,7 @@
         <v>213</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>215</v>
@@ -16892,7 +16904,7 @@
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="R129" t="s" s="2">
         <v>44</v>
@@ -16992,10 +17004,10 @@
         <v>65</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
@@ -17106,10 +17118,10 @@
         <v>143</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>233</v>
@@ -17332,7 +17344,7 @@
         <v>247</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>249</v>
@@ -17420,7 +17432,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17532,7 +17544,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17646,7 +17658,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17672,13 +17684,13 @@
         <v>143</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -17728,7 +17740,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -17737,7 +17749,7 @@
         <v>52</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>44</v>
@@ -17760,7 +17772,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17786,13 +17798,13 @@
         <v>130</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -17842,7 +17854,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -17857,7 +17869,7 @@
         <v>44</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>44</v>
@@ -17874,7 +17886,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17900,13 +17912,13 @@
         <v>143</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -17956,7 +17968,7 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -17988,7 +18000,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18011,22 +18023,22 @@
         <v>53</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
@@ -18072,7 +18084,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18087,13 +18099,13 @@
         <v>44</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>44</v>
@@ -18104,7 +18116,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18127,19 +18139,19 @@
         <v>53</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>44</v>
@@ -18188,7 +18200,7 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -18203,16 +18215,16 @@
         <v>44</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>44</v>
@@ -18220,7 +18232,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18243,19 +18255,19 @@
         <v>53</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>44</v>
@@ -18304,7 +18316,7 @@
         <v>44</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>42</v>
@@ -18319,16 +18331,16 @@
         <v>44</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>44</v>
@@ -18336,7 +18348,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18362,16 +18374,16 @@
         <v>71</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>44</v>
@@ -18399,10 +18411,10 @@
         <v>169</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>44</v>
@@ -18420,7 +18432,7 @@
         <v>44</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>42</v>
@@ -18435,16 +18447,16 @@
         <v>44</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>44</v>
@@ -18452,14 +18464,14 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E143" t="s" s="2">
         <v>42</v>
@@ -18477,19 +18489,19 @@
         <v>53</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>44</v>
@@ -18538,7 +18550,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18553,24 +18565,24 @@
         <v>44</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18599,7 +18611,7 @@
         <v>144</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -18682,7 +18694,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18792,10 +18804,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>44</v>
@@ -18817,16 +18829,16 @@
         <v>44</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -18908,10 +18920,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>44</v>
@@ -18933,13 +18945,13 @@
         <v>44</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -19022,7 +19034,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19045,13 +19057,13 @@
         <v>44</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -19102,7 +19114,7 @@
         <v>44</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -19134,7 +19146,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19157,19 +19169,19 @@
         <v>53</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>44</v>
@@ -19218,7 +19230,7 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
@@ -19233,7 +19245,7 @@
         <v>44</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>147</v>
@@ -19242,7 +19254,7 @@
         <v>44</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>44</v>
@@ -19250,10 +19262,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C150" t="s" s="2">
         <v>44</v>
@@ -19275,19 +19287,19 @@
         <v>53</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>44</v>
@@ -19336,7 +19348,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19351,7 +19363,7 @@
         <v>44</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>147</v>
@@ -19360,7 +19372,7 @@
         <v>44</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>44</v>
@@ -19368,10 +19380,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>44</v>
@@ -19393,19 +19405,19 @@
         <v>53</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>44</v>
@@ -19454,7 +19466,7 @@
         <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -19469,7 +19481,7 @@
         <v>44</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>147</v>
@@ -19478,7 +19490,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19486,10 +19498,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B152" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>44</v>
@@ -19511,19 +19523,19 @@
         <v>53</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>44</v>
@@ -19572,7 +19584,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -19587,7 +19599,7 @@
         <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>147</v>
@@ -19596,7 +19608,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19604,10 +19616,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>44</v>
@@ -19629,19 +19641,19 @@
         <v>53</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>44</v>
@@ -19690,7 +19702,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19705,7 +19717,7 @@
         <v>44</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>147</v>
@@ -19714,7 +19726,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19722,7 +19734,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19751,7 +19763,7 @@
         <v>144</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -19834,7 +19846,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19944,10 +19956,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>44</v>
@@ -19969,16 +19981,16 @@
         <v>44</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20040,7 +20052,7 @@
         <v>107</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>44</v>
@@ -20060,7 +20072,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20083,13 +20095,13 @@
         <v>44</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -20140,7 +20152,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20172,7 +20184,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20195,19 +20207,19 @@
         <v>53</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20256,7 +20268,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20271,16 +20283,16 @@
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20288,7 +20300,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20314,14 +20326,14 @@
         <v>192</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20349,29 +20361,29 @@
         <v>75</v>
       </c>
       <c r="X159" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE159" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y159" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
       </c>
@@ -20385,16 +20397,16 @@
         <v>44</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20402,7 +20414,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20425,19 +20437,19 @@
         <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20486,7 +20498,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20501,7 +20513,7 @@
         <v>44</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>147</v>
@@ -20510,7 +20522,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20518,7 +20530,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20541,17 +20553,17 @@
         <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
@@ -20600,7 +20612,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20615,7 +20627,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>147</v>
@@ -20624,7 +20636,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20632,7 +20644,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20655,19 +20667,19 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20716,7 +20728,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20728,10 +20740,10 @@
         <v>44</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>147</v>
@@ -20748,7 +20760,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20860,7 +20872,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20974,11 +20986,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21003,7 +21015,7 @@
         <v>125</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>127</v>
@@ -21056,7 +21068,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21088,7 +21100,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21114,14 +21126,14 @@
         <v>192</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21150,25 +21162,25 @@
       </c>
       <c r="X166" s="2"/>
       <c r="Y166" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE166" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21183,7 +21195,7 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>147</v>
@@ -21192,7 +21204,7 @@
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21200,7 +21212,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21223,17 +21235,17 @@
         <v>44</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21282,7 +21294,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21297,7 +21309,7 @@
         <v>44</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>147</v>
@@ -21306,7 +21318,7 @@
         <v>44</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>44</v>
@@ -21314,7 +21326,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21337,19 +21349,19 @@
         <v>44</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>44</v>
@@ -21398,7 +21410,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21413,7 +21425,7 @@
         <v>44</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>147</v>
@@ -21422,7 +21434,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21430,7 +21442,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21453,17 +21465,17 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21512,7 +21524,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21527,7 +21539,7 @@
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>147</v>
@@ -21536,7 +21548,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21544,7 +21556,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21570,14 +21582,14 @@
         <v>71</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21605,10 +21617,10 @@
         <v>169</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>44</v>
@@ -21626,7 +21638,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21641,7 +21653,7 @@
         <v>44</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>147</v>
@@ -21650,7 +21662,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21658,7 +21670,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21681,17 +21693,17 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21740,7 +21752,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21749,13 +21761,13 @@
         <v>52</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>147</v>
@@ -21764,7 +21776,7 @@
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21772,7 +21784,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21798,10 +21810,10 @@
         <v>240</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -21852,7 +21864,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21867,7 +21879,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>147</v>
@@ -21884,7 +21896,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21907,19 +21919,19 @@
         <v>53</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21968,7 +21980,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21980,10 +21992,10 @@
         <v>44</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>147</v>
@@ -22000,7 +22012,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22112,7 +22124,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22226,11 +22238,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22255,7 +22267,7 @@
         <v>125</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>127</v>
@@ -22308,7 +22320,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22340,7 +22352,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22366,16 +22378,16 @@
         <v>192</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22400,13 +22412,13 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
@@ -22424,7 +22436,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>52</v>
@@ -22439,7 +22451,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>147</v>
@@ -22448,7 +22460,7 @@
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22456,7 +22468,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22482,16 +22494,16 @@
         <v>192</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22516,13 +22528,13 @@
         <v>44</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>44</v>
@@ -22540,7 +22552,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
@@ -22555,7 +22567,7 @@
         <v>44</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>147</v>
@@ -22564,7 +22576,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22572,7 +22584,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22598,14 +22610,14 @@
         <v>192</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22630,32 +22642,32 @@
         <v>44</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="X179" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="Y179" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE179" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="Y179" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>569</v>
-      </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
       </c>
@@ -22669,7 +22681,7 @@
         <v>44</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>147</v>
@@ -22686,7 +22698,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22709,19 +22721,19 @@
         <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22770,7 +22782,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22782,13 +22794,13 @@
         <v>44</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>44</v>
@@ -22802,7 +22814,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22914,7 +22926,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23028,11 +23040,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23057,7 +23069,7 @@
         <v>125</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>127</v>
@@ -23110,7 +23122,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23142,7 +23154,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23168,16 +23180,16 @@
         <v>192</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23206,7 +23218,7 @@
       </c>
       <c r="X184" s="2"/>
       <c r="Y184" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>44</v>
@@ -23224,7 +23236,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>52</v>
@@ -23239,16 +23251,16 @@
         <v>44</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23256,7 +23268,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23279,19 +23291,19 @@
         <v>44</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23340,7 +23352,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23355,16 +23367,16 @@
         <v>44</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23372,14 +23384,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>42</v>
@@ -23397,16 +23409,16 @@
         <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23456,7 +23468,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23471,7 +23483,7 @@
         <v>44</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>147</v>
@@ -23480,7 +23492,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23488,14 +23500,14 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E187" t="s" s="2">
         <v>42</v>
@@ -23513,19 +23525,19 @@
         <v>53</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23574,7 +23586,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23589,10 +23601,10 @@
         <v>44</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>44</v>
@@ -23606,7 +23618,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23629,19 +23641,19 @@
         <v>53</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23690,7 +23702,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23702,10 +23714,10 @@
         <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>147</v>
@@ -23722,7 +23734,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23834,7 +23846,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23948,11 +23960,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23977,7 +23989,7 @@
         <v>125</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>127</v>
@@ -24030,7 +24042,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24062,7 +24074,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24085,16 +24097,16 @@
         <v>53</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -24144,7 +24156,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>52</v>
@@ -24168,7 +24180,7 @@
         <v>44</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>44</v>
@@ -24176,7 +24188,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24202,10 +24214,10 @@
         <v>71</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24235,10 +24247,10 @@
         <v>169</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>44</v>
@@ -24256,7 +24268,7 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>52</v>
@@ -24271,7 +24283,7 @@
         <v>44</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>147</v>

--- a/output/PersonalHealthRecords/patient-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/patient-ihi-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="639">
   <si>
     <t>Path</t>
   </si>
@@ -181,7 +181,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -200,7 +200,7 @@
     <t>Patient.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -216,7 +216,7 @@
     <t>Patient.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
     <t>Patient.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -268,7 +268,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -298,7 +298,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -320,7 +320,7 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -343,7 +343,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/birthPlace]]} {[]}
+    <t xml:space="preserve">Extension {birthPlace}
 </t>
   </si>
   <si>
@@ -364,7 +364,7 @@
     <t>indigenousStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/indigenous-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/indigenous-status}
 </t>
   </si>
   <si>
@@ -377,7 +377,7 @@
     <t>closingTheGapRegistration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/closing-the-gap-registration]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/closing-the-gap-registration}
 </t>
   </si>
   <si>
@@ -390,7 +390,7 @@
     <t>mothersMaidenName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/patient-mothersMaidenName]]} {[]}
+    <t xml:space="preserve">Extension {patient-mothersMaidenName}
 </t>
   </si>
   <si>
@@ -428,7 +428,7 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -470,7 +470,7 @@
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>ihiStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-status}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-status"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-status</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -544,7 +544,7 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -566,7 +566,7 @@
     <t>ihiRecordStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-record-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-record-status}
 </t>
   </si>
   <si>
@@ -576,7 +576,7 @@
     <t>Individual Healthcare Identifier (IHI) value record status associated with an IHI identifier.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-record-status"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-record-status</t>
   </si>
   <si>
     <t>IHI Record Status Code</t>
@@ -621,7 +621,7 @@
     <t>Patient.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -703,7 +703,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="IHI"/&gt;</t>
+    <t>IHI</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -727,10 +727,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/ihi/1.0"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/hi/ihi/1.0</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -754,7 +754,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>16</t>
@@ -772,7 +772,7 @@
     <t>Patient.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -842,16 +842,13 @@
     <t>Medicare number descriptive text.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medicare Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Medicare number</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/medicare-number</t>
   </si>
   <si>
     <t>Medicare number including optional individual reference number</t>
@@ -875,7 +872,7 @@
     <t>Patient.identifier.period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -953,7 +950,7 @@
     <t>DVA number assigned uri.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/dva"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/dva</t>
   </si>
   <si>
     <t>DVA number</t>
@@ -991,16 +988,13 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Health Care Card Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN)</t>
   </si>
   <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN) values.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/centrelink-customer-reference-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/centrelink-customer-reference-number</t>
   </si>
   <si>
     <t>Centrelink CRN</t>
@@ -1035,9 +1029,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Pensioner Concession Card Number"/&gt;</t>
-  </si>
-  <si>
     <t>commonwealthSeniorsHealthCard</t>
   </si>
   <si>
@@ -1055,7 +1046,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Commonwealth Seniors Health Card"/&gt;</t>
+    <t>Commonwealth Seniors Health Card</t>
   </si>
   <si>
     <t>Namespace for Customer Reference Number (CRN) values.</t>
@@ -1087,7 +1078,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical Record Number"/&gt;</t>
+    <t>Medical Record Number</t>
   </si>
   <si>
     <t>Medical record number system namespace</t>
@@ -1125,9 +1116,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Private Health Insurance Member Number"/&gt;</t>
-  </si>
-  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -1200,7 +1188,7 @@
     <t>Patient.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -1217,7 +1205,7 @@
     <t>Need to be able to mark a patient record as not to be used because it was created in error.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
+    <t>true</t>
   </si>
   <si>
     <t>statusCode</t>
@@ -1229,7 +1217,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
+    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
 </t>
   </si>
   <si>
@@ -1257,7 +1245,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -1318,7 +1306,7 @@
     <t>Birth Date</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -1358,7 +1346,7 @@
     <t>accuracyIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/date-accuracy-indicator]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/date-accuracy-indicator}
 </t>
   </si>
   <si>
@@ -1374,7 +1362,7 @@
     <t>birthTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/patient-birthTime]]} {[]}
+    <t xml:space="preserve">Extension {patient-birthTime}
 </t>
   </si>
   <si>
@@ -1387,7 +1375,7 @@
     <t>Patient.birthDate.value</t>
   </si>
   <si>
-    <t xml:space="preserve">null {[]} {[]}
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
@@ -1403,8 +1391,8 @@
     <t>Patient.deceased[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-dateTime {[]} {[]}</t>
+    <t>boolean
+dateTime</t>
   </si>
   <si>
     <t>Indicates if the individual is deceased or not</t>
@@ -1484,7 +1472,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[]} {[]}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -1539,8 +1527,8 @@
     <t>Patient.multipleBirth[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-integer {[]} {[]}</t>
+    <t>boolean
+integer</t>
   </si>
   <si>
     <t>Whether patient is part of a multiple birth</t>
@@ -1566,7 +1554,7 @@
     <t>Patient.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -1588,7 +1576,7 @@
     <t>Patient.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1711,7 +1699,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1)
 </t>
   </si>
   <si>
@@ -1943,7 +1931,7 @@
     <t>General Practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1)
 </t>
   </si>
   <si>
@@ -2016,7 +2004,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -2097,67 +2085,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -2193,7 +2181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO193"/>
+  <dimension ref="A1:AN193"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2216,7 +2204,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -7532,7 +7520,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>44</v>
@@ -7632,10 +7620,10 @@
         <v>65</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
@@ -7646,7 +7634,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>44</v>
@@ -7746,10 +7734,10 @@
         <v>143</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>233</v>
@@ -7775,7 +7763,7 @@
         <v>44</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W49" t="s" s="2">
         <v>44</v>
@@ -7860,7 +7848,7 @@
         <v>240</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>242</v>
@@ -7946,7 +7934,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8058,7 +8046,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8172,7 +8160,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8195,16 +8183,16 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8254,31 +8242,31 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH53" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH53" t="s" s="2">
+      <c r="AI53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AI53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
+      <c r="AK53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -8286,7 +8274,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8309,92 +8297,92 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P54" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Q54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Q54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -8519,7 +8507,7 @@
         <v>129</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>44</v>
@@ -8544,10 +8532,10 @@
         <v>130</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
@@ -8612,7 +8600,7 @@
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>135</v>
@@ -9000,10 +8988,10 @@
         <v>192</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>195</v>
@@ -9461,7 +9449,7 @@
         <v>213</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>215</v>
@@ -9574,10 +9562,10 @@
         <v>65</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
@@ -9588,7 +9576,7 @@
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>44</v>
@@ -9688,13 +9676,13 @@
         <v>143</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9717,7 +9705,7 @@
         <v>44</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W66" t="s" s="2">
         <v>44</v>
@@ -10005,7 +9993,7 @@
         <v>129</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>44</v>
@@ -10030,10 +10018,10 @@
         <v>130</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
@@ -10486,10 +10474,10 @@
         <v>192</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>195</v>
@@ -10505,7 +10493,7 @@
         <v>44</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>44</v>
@@ -10947,7 +10935,7 @@
         <v>213</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>215</v>
@@ -10960,7 +10948,7 @@
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>44</v>
@@ -11060,10 +11048,10 @@
         <v>65</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
@@ -11074,7 +11062,7 @@
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>44</v>
@@ -11174,13 +11162,13 @@
         <v>143</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11203,7 +11191,7 @@
         <v>44</v>
       </c>
       <c r="V79" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="W79" t="s" s="2">
         <v>44</v>
@@ -11491,7 +11479,7 @@
         <v>129</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>44</v>
@@ -11516,10 +11504,10 @@
         <v>130</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
@@ -11972,10 +11960,10 @@
         <v>192</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>195</v>
@@ -11991,7 +11979,7 @@
         <v>44</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>44</v>
@@ -12433,7 +12421,7 @@
         <v>213</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>215</v>
@@ -12446,7 +12434,7 @@
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>44</v>
@@ -12546,10 +12534,10 @@
         <v>65</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
@@ -12560,7 +12548,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>44</v>
@@ -12660,13 +12648,13 @@
         <v>143</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12689,7 +12677,7 @@
         <v>44</v>
       </c>
       <c r="V92" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="W92" t="s" s="2">
         <v>44</v>
@@ -12977,7 +12965,7 @@
         <v>129</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>44</v>
@@ -13002,10 +12990,10 @@
         <v>130</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
@@ -13458,10 +13446,10 @@
         <v>192</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>195</v>
@@ -13477,7 +13465,7 @@
         <v>44</v>
       </c>
       <c r="R99" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>44</v>
@@ -13919,7 +13907,7 @@
         <v>213</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>215</v>
@@ -13932,7 +13920,7 @@
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>44</v>
@@ -14032,10 +14020,10 @@
         <v>65</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
@@ -14046,7 +14034,7 @@
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>44</v>
@@ -14146,13 +14134,13 @@
         <v>143</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14175,7 +14163,7 @@
         <v>44</v>
       </c>
       <c r="V105" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="W105" t="s" s="2">
         <v>44</v>
@@ -14463,7 +14451,7 @@
         <v>129</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>44</v>
@@ -14488,10 +14476,10 @@
         <v>130</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
@@ -14944,10 +14932,10 @@
         <v>192</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>195</v>
@@ -14963,7 +14951,7 @@
         <v>44</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>44</v>
@@ -15405,7 +15393,7 @@
         <v>213</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>215</v>
@@ -15418,7 +15406,7 @@
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="R116" t="s" s="2">
         <v>44</v>
@@ -15518,10 +15506,10 @@
         <v>65</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
@@ -15632,10 +15620,10 @@
         <v>143</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>233</v>
@@ -15858,7 +15846,7 @@
         <v>247</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>249</v>
@@ -15949,7 +15937,7 @@
         <v>129</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>44</v>
@@ -15974,10 +15962,10 @@
         <v>130</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
@@ -16430,10 +16418,10 @@
         <v>192</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>195</v>
@@ -16449,7 +16437,7 @@
         <v>44</v>
       </c>
       <c r="R125" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>44</v>
@@ -16891,7 +16879,7 @@
         <v>213</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>215</v>
@@ -16904,7 +16892,7 @@
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="R129" t="s" s="2">
         <v>44</v>
@@ -17004,10 +16992,10 @@
         <v>65</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
@@ -17118,10 +17106,10 @@
         <v>143</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>233</v>
@@ -17344,7 +17332,7 @@
         <v>247</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>249</v>
@@ -17432,7 +17420,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17544,7 +17532,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17658,7 +17646,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17684,13 +17672,13 @@
         <v>143</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -17740,7 +17728,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -17749,7 +17737,7 @@
         <v>52</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>44</v>
@@ -17772,7 +17760,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17798,13 +17786,13 @@
         <v>130</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -17854,7 +17842,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -17869,7 +17857,7 @@
         <v>44</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>44</v>
@@ -17886,7 +17874,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17912,13 +17900,13 @@
         <v>143</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -17968,7 +17956,7 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -18000,7 +17988,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18023,22 +18011,22 @@
         <v>53</v>
       </c>
       <c r="J139" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K139" t="s" s="2">
+      <c r="O139" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
@@ -18084,7 +18072,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18099,13 +18087,13 @@
         <v>44</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>44</v>
@@ -18116,7 +18104,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18139,19 +18127,19 @@
         <v>53</v>
       </c>
       <c r="J140" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>44</v>
@@ -18200,7 +18188,7 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -18215,16 +18203,16 @@
         <v>44</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>44</v>
@@ -18232,7 +18220,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18255,19 +18243,19 @@
         <v>53</v>
       </c>
       <c r="J141" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>44</v>
@@ -18316,7 +18304,7 @@
         <v>44</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>42</v>
@@ -18331,16 +18319,16 @@
         <v>44</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>44</v>
@@ -18348,7 +18336,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18374,16 +18362,16 @@
         <v>71</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>44</v>
@@ -18411,52 +18399,52 @@
         <v>169</v>
       </c>
       <c r="X142" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM142" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>44</v>
@@ -18464,14 +18452,14 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E143" t="s" s="2">
         <v>42</v>
@@ -18489,19 +18477,19 @@
         <v>53</v>
       </c>
       <c r="J143" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N143" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>44</v>
@@ -18550,7 +18538,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18565,24 +18553,24 @@
         <v>44</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18611,7 +18599,7 @@
         <v>144</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -18694,7 +18682,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18804,10 +18792,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>44</v>
@@ -18829,16 +18817,16 @@
         <v>44</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -18920,10 +18908,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>44</v>
@@ -18945,13 +18933,13 @@
         <v>44</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -19034,7 +19022,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19057,13 +19045,13 @@
         <v>44</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -19114,7 +19102,7 @@
         <v>44</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -19146,7 +19134,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19169,19 +19157,19 @@
         <v>53</v>
       </c>
       <c r="J149" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>44</v>
@@ -19230,7 +19218,7 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
@@ -19245,7 +19233,7 @@
         <v>44</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>147</v>
@@ -19254,7 +19242,7 @@
         <v>44</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>44</v>
@@ -19262,10 +19250,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C150" t="s" s="2">
         <v>44</v>
@@ -19287,19 +19275,19 @@
         <v>53</v>
       </c>
       <c r="J150" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>44</v>
@@ -19348,7 +19336,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19363,7 +19351,7 @@
         <v>44</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>147</v>
@@ -19372,7 +19360,7 @@
         <v>44</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>44</v>
@@ -19380,10 +19368,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>44</v>
@@ -19405,19 +19393,19 @@
         <v>53</v>
       </c>
       <c r="J151" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>44</v>
@@ -19466,7 +19454,7 @@
         <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -19481,7 +19469,7 @@
         <v>44</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>147</v>
@@ -19490,7 +19478,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19498,10 +19486,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>44</v>
@@ -19523,19 +19511,19 @@
         <v>53</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>44</v>
@@ -19584,7 +19572,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -19599,7 +19587,7 @@
         <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>147</v>
@@ -19608,7 +19596,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19616,10 +19604,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>44</v>
@@ -19641,19 +19629,19 @@
         <v>53</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>44</v>
@@ -19702,7 +19690,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19717,7 +19705,7 @@
         <v>44</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>147</v>
@@ -19726,7 +19714,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19734,7 +19722,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19763,7 +19751,7 @@
         <v>144</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -19846,7 +19834,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19956,10 +19944,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>44</v>
@@ -19981,16 +19969,16 @@
         <v>44</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20052,7 +20040,7 @@
         <v>107</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>44</v>
@@ -20072,7 +20060,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20095,13 +20083,13 @@
         <v>44</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -20152,7 +20140,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20184,7 +20172,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20207,19 +20195,19 @@
         <v>53</v>
       </c>
       <c r="J158" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20268,7 +20256,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20283,16 +20271,16 @@
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20300,7 +20288,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20326,14 +20314,14 @@
         <v>192</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20361,52 +20349,52 @@
         <v>75</v>
       </c>
       <c r="X159" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM159" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20414,7 +20402,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20437,19 +20425,19 @@
         <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N160" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20498,7 +20486,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20513,7 +20501,7 @@
         <v>44</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>147</v>
@@ -20522,7 +20510,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20530,7 +20518,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20553,17 +20541,17 @@
         <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
@@ -20612,7 +20600,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20627,7 +20615,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>147</v>
@@ -20636,7 +20624,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20644,7 +20632,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20667,19 +20655,19 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N162" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20728,7 +20716,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20740,10 +20728,10 @@
         <v>44</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>147</v>
@@ -20760,7 +20748,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20872,7 +20860,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20986,11 +20974,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21015,7 +21003,7 @@
         <v>125</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>127</v>
@@ -21068,7 +21056,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21100,7 +21088,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21126,14 +21114,14 @@
         <v>192</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21162,7 +21150,7 @@
       </c>
       <c r="X166" s="2"/>
       <c r="Y166" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>44</v>
@@ -21180,7 +21168,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21195,7 +21183,7 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>147</v>
@@ -21204,7 +21192,7 @@
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21212,7 +21200,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21235,17 +21223,17 @@
         <v>44</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21294,7 +21282,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21309,7 +21297,7 @@
         <v>44</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>147</v>
@@ -21318,7 +21306,7 @@
         <v>44</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>44</v>
@@ -21326,7 +21314,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21349,19 +21337,19 @@
         <v>44</v>
       </c>
       <c r="J168" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N168" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="K168" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>44</v>
@@ -21410,7 +21398,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21425,7 +21413,7 @@
         <v>44</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>147</v>
@@ -21434,7 +21422,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21442,7 +21430,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21465,17 +21453,17 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21524,7 +21512,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21539,7 +21527,7 @@
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>147</v>
@@ -21548,7 +21536,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21556,7 +21544,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21582,14 +21570,14 @@
         <v>71</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21617,10 +21605,10 @@
         <v>169</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>44</v>
@@ -21638,7 +21626,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21653,7 +21641,7 @@
         <v>44</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>147</v>
@@ -21662,7 +21650,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21670,7 +21658,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21693,17 +21681,17 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21752,7 +21740,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21761,13 +21749,13 @@
         <v>52</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>147</v>
@@ -21776,7 +21764,7 @@
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21784,7 +21772,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21810,10 +21798,10 @@
         <v>240</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -21864,7 +21852,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21879,7 +21867,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>147</v>
@@ -21896,7 +21884,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21919,19 +21907,19 @@
         <v>53</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21980,7 +21968,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21992,10 +21980,10 @@
         <v>44</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>147</v>
@@ -22012,7 +22000,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22124,7 +22112,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22238,11 +22226,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22267,7 +22255,7 @@
         <v>125</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>127</v>
@@ -22320,7 +22308,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22352,7 +22340,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22378,16 +22366,16 @@
         <v>192</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22412,13 +22400,13 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
@@ -22436,7 +22424,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>52</v>
@@ -22451,7 +22439,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>147</v>
@@ -22460,7 +22448,7 @@
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22468,7 +22456,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22494,16 +22482,16 @@
         <v>192</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22528,32 +22516,32 @@
         <v>44</v>
       </c>
       <c r="W178" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE178" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="X178" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="Y178" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
       </c>
@@ -22567,7 +22555,7 @@
         <v>44</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>147</v>
@@ -22576,7 +22564,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22584,7 +22572,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22610,14 +22598,14 @@
         <v>192</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22642,13 +22630,13 @@
         <v>44</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>44</v>
@@ -22666,7 +22654,7 @@
         <v>44</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
@@ -22681,7 +22669,7 @@
         <v>44</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>147</v>
@@ -22698,7 +22686,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22721,19 +22709,19 @@
         <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22782,7 +22770,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22794,13 +22782,13 @@
         <v>44</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>44</v>
@@ -22814,7 +22802,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22926,7 +22914,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23040,11 +23028,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23069,7 +23057,7 @@
         <v>125</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>127</v>
@@ -23122,7 +23110,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23154,7 +23142,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23180,16 +23168,16 @@
         <v>192</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23218,7 +23206,7 @@
       </c>
       <c r="X184" s="2"/>
       <c r="Y184" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>44</v>
@@ -23236,7 +23224,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>52</v>
@@ -23251,16 +23239,16 @@
         <v>44</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23268,7 +23256,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23291,19 +23279,19 @@
         <v>44</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23352,7 +23340,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23367,16 +23355,16 @@
         <v>44</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23384,14 +23372,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>42</v>
@@ -23409,16 +23397,16 @@
         <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23468,7 +23456,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23483,7 +23471,7 @@
         <v>44</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>147</v>
@@ -23492,7 +23480,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23500,14 +23488,14 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E187" t="s" s="2">
         <v>42</v>
@@ -23525,19 +23513,19 @@
         <v>53</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23586,7 +23574,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23601,10 +23589,10 @@
         <v>44</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>44</v>
@@ -23618,7 +23606,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23641,19 +23629,19 @@
         <v>53</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23702,7 +23690,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23714,10 +23702,10 @@
         <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>147</v>
@@ -23734,7 +23722,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23846,7 +23834,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23960,11 +23948,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23989,7 +23977,7 @@
         <v>125</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>127</v>
@@ -24042,7 +24030,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24074,7 +24062,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24097,16 +24085,16 @@
         <v>53</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -24156,7 +24144,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>52</v>
@@ -24180,7 +24168,7 @@
         <v>44</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>44</v>
@@ -24188,7 +24176,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24214,10 +24202,10 @@
         <v>71</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24247,10 +24235,10 @@
         <v>169</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>44</v>
@@ -24268,22 +24256,22 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>147</v>

--- a/output/PersonalHealthRecords/patient-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/patient-ihi-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="638">
   <si>
     <t>Path</t>
   </si>
@@ -358,7 +358,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>indigenousStatus</t>
@@ -1454,10 +1454,6 @@
   </si>
   <si>
     <t>In some circumstances, systems may only have date or datetime data that has unknown or estimated parts.  This coding establishes the acuraccy of the day, month and year parts.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Patient.deceasedDateTime.value</t>
@@ -20040,7 +20036,7 @@
         <v>107</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>452</v>
+        <v>108</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>44</v>
@@ -20060,7 +20056,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20086,7 +20082,7 @@
         <v>426</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L157" t="s" s="2">
         <v>428</v>
@@ -20140,7 +20136,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20172,7 +20168,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20195,19 +20191,19 @@
         <v>53</v>
       </c>
       <c r="J158" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K158" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="K158" t="s" s="2">
+      <c r="L158" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20256,7 +20252,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20271,16 +20267,16 @@
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AK158" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AK158" t="s" s="2">
+      <c r="AL158" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM158" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM158" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20288,7 +20284,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20314,14 +20310,14 @@
         <v>192</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20349,52 +20345,52 @@
         <v>75</v>
       </c>
       <c r="X159" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y159" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y159" t="s" s="2">
+      <c r="Z159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="Z159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
+      <c r="AK159" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AK159" t="s" s="2">
+      <c r="AL159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM159" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20402,7 +20398,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20425,19 +20421,19 @@
         <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K160" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K160" t="s" s="2">
+      <c r="L160" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L160" t="s" s="2">
+      <c r="M160" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20486,7 +20482,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20501,7 +20497,7 @@
         <v>44</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>147</v>
@@ -20510,7 +20506,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20518,7 +20514,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20541,17 +20537,17 @@
         <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="K161" t="s" s="2">
+      <c r="L161" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
@@ -20600,7 +20596,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20615,7 +20611,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>147</v>
@@ -20624,7 +20620,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20632,7 +20628,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20655,19 +20651,19 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="K162" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="K162" t="s" s="2">
+      <c r="L162" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20716,7 +20712,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20728,10 +20724,10 @@
         <v>44</v>
       </c>
       <c r="AI162" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AJ162" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>147</v>
@@ -20748,7 +20744,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20860,7 +20856,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20974,11 +20970,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21003,7 +20999,7 @@
         <v>125</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>127</v>
@@ -21056,7 +21052,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21088,7 +21084,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21114,14 +21110,14 @@
         <v>192</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21150,7 +21146,7 @@
       </c>
       <c r="X166" s="2"/>
       <c r="Y166" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>44</v>
@@ -21168,7 +21164,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21183,7 +21179,7 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>147</v>
@@ -21192,7 +21188,7 @@
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21200,7 +21196,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21226,14 +21222,14 @@
         <v>375</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L167" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21282,7 +21278,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21306,7 +21302,7 @@
         <v>44</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>44</v>
@@ -21314,7 +21310,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21340,13 +21336,13 @@
         <v>384</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="M168" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="N168" t="s" s="2">
         <v>388</v>
@@ -21398,7 +21394,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21422,7 +21418,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21430,7 +21426,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21453,17 +21449,17 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21512,7 +21508,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21527,7 +21523,7 @@
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>147</v>
@@ -21536,7 +21532,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21544,7 +21540,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21573,11 +21569,11 @@
         <v>393</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21626,7 +21622,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21650,7 +21646,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21658,7 +21654,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21681,17 +21677,17 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="K171" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="K171" t="s" s="2">
+      <c r="L171" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21740,7 +21736,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21749,13 +21745,13 @@
         <v>52</v>
       </c>
       <c r="AH171" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>147</v>
@@ -21764,7 +21760,7 @@
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21772,7 +21768,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21798,10 +21794,10 @@
         <v>240</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -21852,7 +21848,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21867,7 +21863,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>147</v>
@@ -21884,7 +21880,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21907,19 +21903,19 @@
         <v>53</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21968,7 +21964,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21980,10 +21976,10 @@
         <v>44</v>
       </c>
       <c r="AI173" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AJ173" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>147</v>
@@ -22000,7 +21996,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22112,7 +22108,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22226,11 +22222,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22255,7 +22251,7 @@
         <v>125</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>127</v>
@@ -22308,7 +22304,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22340,7 +22336,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22366,16 +22362,16 @@
         <v>192</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L177" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L177" t="s" s="2">
+      <c r="M177" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M177" t="s" s="2">
+      <c r="N177" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22400,14 +22396,14 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="X177" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="X177" t="s" s="2">
+      <c r="Y177" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="Y177" t="s" s="2">
-        <v>558</v>
-      </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
       </c>
@@ -22424,7 +22420,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>52</v>
@@ -22439,7 +22435,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>147</v>
@@ -22448,7 +22444,7 @@
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22456,7 +22452,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22482,16 +22478,16 @@
         <v>192</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L178" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="M178" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22516,46 +22512,46 @@
         <v>44</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="X178" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="Y178" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="Y178" t="s" s="2">
+      <c r="Z178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ178" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>147</v>
@@ -22564,7 +22560,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22572,7 +22568,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22598,14 +22594,14 @@
         <v>192</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22630,46 +22626,46 @@
         <v>44</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="X179" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="Y179" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="Y179" t="s" s="2">
+      <c r="Z179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AF179" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG179" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ179" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>147</v>
@@ -22686,7 +22682,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22709,19 +22705,19 @@
         <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="L180" t="s" s="2">
+      <c r="M180" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M180" t="s" s="2">
+      <c r="N180" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22770,7 +22766,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22782,13 +22778,13 @@
         <v>44</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AJ180" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AK180" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="AK180" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>44</v>
@@ -22802,7 +22798,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22914,7 +22910,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23028,11 +23024,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23057,7 +23053,7 @@
         <v>125</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>127</v>
@@ -23110,7 +23106,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23142,7 +23138,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23168,16 +23164,16 @@
         <v>192</v>
       </c>
       <c r="K184" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L184" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L184" t="s" s="2">
+      <c r="M184" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="N184" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23206,49 +23202,49 @@
       </c>
       <c r="X184" s="2"/>
       <c r="Y184" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="Z184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE184" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AF184" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG184" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ184" t="s" s="2">
+      <c r="AK184" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="AK184" t="s" s="2">
+      <c r="AL184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM184" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="AL184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM184" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23256,7 +23252,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23282,16 +23278,16 @@
         <v>366</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L185" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L185" t="s" s="2">
+      <c r="M185" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="M185" t="s" s="2">
+      <c r="N185" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23340,7 +23336,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23355,16 +23351,16 @@
         <v>44</v>
       </c>
       <c r="AJ185" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AK185" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AK185" t="s" s="2">
+      <c r="AL185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM185" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AL185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM185" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23372,14 +23368,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="D186" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="D186" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>42</v>
@@ -23397,16 +23393,16 @@
         <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="K186" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="K186" t="s" s="2">
+      <c r="L186" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="M186" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23456,7 +23452,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23471,7 +23467,7 @@
         <v>44</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>147</v>
@@ -23480,7 +23476,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23488,14 +23484,14 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E187" t="s" s="2">
         <v>42</v>
@@ -23513,19 +23509,19 @@
         <v>53</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L187" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="L187" t="s" s="2">
+      <c r="M187" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23574,7 +23570,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23589,10 +23585,10 @@
         <v>44</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>44</v>
@@ -23606,7 +23602,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23629,19 +23625,19 @@
         <v>53</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L188" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="L188" t="s" s="2">
+      <c r="M188" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23690,7 +23686,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23702,10 +23698,10 @@
         <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>147</v>
@@ -23722,7 +23718,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23834,7 +23830,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23948,11 +23944,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23977,7 +23973,7 @@
         <v>125</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>127</v>
@@ -24030,7 +24026,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24062,7 +24058,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24085,16 +24081,16 @@
         <v>53</v>
       </c>
       <c r="J192" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="K192" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="K192" t="s" s="2">
+      <c r="L192" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="L192" t="s" s="2">
+      <c r="M192" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -24144,7 +24140,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>52</v>
@@ -24168,7 +24164,7 @@
         <v>44</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>44</v>
@@ -24176,7 +24172,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24202,10 +24198,10 @@
         <v>71</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24235,43 +24231,43 @@
         <v>169</v>
       </c>
       <c r="X193" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="Y193" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="Y193" t="s" s="2">
+      <c r="Z193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="Z193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE193" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>147</v>

--- a/output/PersonalHealthRecords/patient-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/patient-ihi-1.xlsx
@@ -20512,7 +20512,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
         <v>481</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>42</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>44</v>

--- a/output/PersonalHealthRecords/patient-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/patient-ihi-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="637">
   <si>
     <t>Path</t>
   </si>
@@ -1221,25 +1221,26 @@
 </t>
   </si>
   <si>
-    <t>A name associated with the patient</t>
-  </si>
-  <si>
-    <t>A name associated with the individual.</t>
-  </si>
-  <si>
-    <t>A patient may have multiple names with different uses or applicable periods. For animals, the name is a "HumanName" in the sense that is assigned and used by humans and has the same patterns.</t>
+    <t>Name of a human - parts and usage</t>
+  </si>
+  <si>
+    <t>A human's name with the ability to identify parts and usage.</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts may or may not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
   </si>
   <si>
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>.patient.name</t>
-  </si>
-  <si>
-    <t>PID-5, PID-9</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+inv-dh-humn-01:The name shall at least have text or a family name or a given name {text.exists() or family.exists() or given.exists()}</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>XPN</t>
   </si>
   <si>
     <t>Patient.telecom</t>
@@ -1406,6 +1407,13 @@
   </si>
   <si>
     <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedInd, player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedTime</t>
@@ -1638,16 +1646,7 @@
     <t>Patient.contact.name</t>
   </si>
   <si>
-    <t>A name associated with the contact person</t>
-  </si>
-  <si>
-    <t>A name associated with the contact person.</t>
-  </si>
-  <si>
     <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
-  </si>
-  <si>
-    <t>NK1-2</t>
   </si>
   <si>
     <t>Patient.contact.telecom</t>
@@ -18120,7 +18119,7 @@
         <v>44</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J140" t="s" s="2">
         <v>375</v>
@@ -18193,16 +18192,16 @@
         <v>43</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>381</v>
+        <v>44</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>44</v>
@@ -19128,7 +19127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
         <v>430</v>
       </c>
@@ -19202,16 +19201,14 @@
         <v>44</v>
       </c>
       <c r="AA149" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="AB149" s="2"/>
       <c r="AC149" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD149" t="s" s="2">
-        <v>44</v>
+        <v>437</v>
       </c>
       <c r="AE149" t="s" s="2">
         <v>430</v>
@@ -19229,7 +19226,7 @@
         <v>44</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>147</v>
@@ -19238,7 +19235,7 @@
         <v>44</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>44</v>
@@ -19249,7 +19246,7 @@
         <v>430</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C150" t="s" s="2">
         <v>44</v>
@@ -19274,7 +19271,7 @@
         <v>431</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L150" t="s" s="2">
         <v>433</v>
@@ -19347,7 +19344,7 @@
         <v>44</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>147</v>
@@ -19356,7 +19353,7 @@
         <v>44</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>44</v>
@@ -19367,7 +19364,7 @@
         <v>430</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>44</v>
@@ -19392,7 +19389,7 @@
         <v>431</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L151" t="s" s="2">
         <v>433</v>
@@ -19465,7 +19462,7 @@
         <v>44</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>147</v>
@@ -19474,7 +19471,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19482,10 +19479,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>44</v>
@@ -19510,10 +19507,10 @@
         <v>366</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M152" t="s" s="2">
         <v>434</v>
@@ -19583,7 +19580,7 @@
         <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>147</v>
@@ -19592,7 +19589,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19600,10 +19597,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>44</v>
@@ -19628,10 +19625,10 @@
         <v>271</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M153" t="s" s="2">
         <v>434</v>
@@ -19701,7 +19698,7 @@
         <v>44</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>147</v>
@@ -19710,7 +19707,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19718,7 +19715,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19830,7 +19827,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19940,7 +19937,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>416</v>
@@ -19968,13 +19965,13 @@
         <v>417</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L156" t="s" s="2">
         <v>419</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20056,7 +20053,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20082,7 +20079,7 @@
         <v>426</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L157" t="s" s="2">
         <v>428</v>
@@ -20136,7 +20133,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20168,7 +20165,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20191,19 +20188,19 @@
         <v>53</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20252,7 +20249,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20267,16 +20264,16 @@
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20284,7 +20281,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20310,14 +20307,14 @@
         <v>192</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20345,10 +20342,10 @@
         <v>75</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>44</v>
@@ -20366,7 +20363,7 @@
         <v>44</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
@@ -20381,16 +20378,16 @@
         <v>44</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20398,7 +20395,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20421,19 +20418,19 @@
         <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20482,7 +20479,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20497,7 +20494,7 @@
         <v>44</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>147</v>
@@ -20506,7 +20503,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20514,7 +20511,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20537,17 +20534,17 @@
         <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
@@ -20596,7 +20593,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20611,7 +20608,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>147</v>
@@ -20620,7 +20617,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20628,7 +20625,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20651,19 +20648,19 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20712,7 +20709,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20724,10 +20721,10 @@
         <v>44</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>147</v>
@@ -20744,7 +20741,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20856,7 +20853,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20970,11 +20967,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20999,7 +20996,7 @@
         <v>125</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>127</v>
@@ -21052,7 +21049,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21084,7 +21081,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21110,14 +21107,14 @@
         <v>192</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21146,7 +21143,7 @@
       </c>
       <c r="X166" s="2"/>
       <c r="Y166" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>44</v>
@@ -21164,7 +21161,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21179,7 +21176,7 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>147</v>
@@ -21188,7 +21185,7 @@
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21196,7 +21193,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21222,12 +21219,14 @@
         <v>375</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>510</v>
+        <v>376</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M167" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="N167" t="s" s="2">
         <v>512</v>
       </c>
@@ -21278,7 +21277,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21287,22 +21286,22 @@
         <v>52</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>513</v>
+        <v>382</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>44</v>
@@ -21310,7 +21309,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21336,13 +21335,13 @@
         <v>384</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="M168" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="N168" t="s" s="2">
         <v>388</v>
@@ -21394,7 +21393,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21418,7 +21417,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21426,7 +21425,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21449,17 +21448,17 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21508,7 +21507,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21523,7 +21522,7 @@
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>147</v>
@@ -21532,7 +21531,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21540,7 +21539,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21569,11 +21568,11 @@
         <v>393</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21622,7 +21621,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21646,7 +21645,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21654,7 +21653,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21677,17 +21676,17 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="K171" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="K171" t="s" s="2">
+      <c r="L171" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21736,7 +21735,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21745,13 +21744,13 @@
         <v>52</v>
       </c>
       <c r="AH171" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>147</v>
@@ -21760,7 +21759,7 @@
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21768,7 +21767,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21794,10 +21793,10 @@
         <v>240</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -21848,7 +21847,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21863,7 +21862,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>147</v>
@@ -21880,7 +21879,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21903,19 +21902,19 @@
         <v>53</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21964,7 +21963,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21976,10 +21975,10 @@
         <v>44</v>
       </c>
       <c r="AI173" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="AJ173" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>147</v>
@@ -21996,7 +21995,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22108,7 +22107,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22222,11 +22221,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22251,7 +22250,7 @@
         <v>125</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>127</v>
@@ -22304,7 +22303,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22336,7 +22335,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22362,16 +22361,16 @@
         <v>192</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L177" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="L177" t="s" s="2">
+      <c r="M177" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M177" t="s" s="2">
+      <c r="N177" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22396,14 +22395,14 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="X177" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="X177" t="s" s="2">
+      <c r="Y177" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="Y177" t="s" s="2">
-        <v>557</v>
-      </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
       </c>
@@ -22420,7 +22419,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>52</v>
@@ -22435,7 +22434,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>147</v>
@@ -22444,7 +22443,7 @@
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22452,7 +22451,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22478,16 +22477,16 @@
         <v>192</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L178" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="M178" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22512,46 +22511,46 @@
         <v>44</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="X178" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="Y178" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="Y178" t="s" s="2">
+      <c r="Z178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ178" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>147</v>
@@ -22560,7 +22559,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22568,7 +22567,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22594,14 +22593,14 @@
         <v>192</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22626,46 +22625,46 @@
         <v>44</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="X179" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="Y179" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="Y179" t="s" s="2">
+      <c r="Z179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AF179" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG179" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ179" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>147</v>
@@ -22682,7 +22681,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22705,19 +22704,19 @@
         <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="L180" t="s" s="2">
+      <c r="M180" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="M180" t="s" s="2">
+      <c r="N180" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22766,7 +22765,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22778,13 +22777,13 @@
         <v>44</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AJ180" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AK180" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AK180" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>44</v>
@@ -22798,7 +22797,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22910,7 +22909,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23024,11 +23023,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23053,7 +23052,7 @@
         <v>125</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>127</v>
@@ -23106,7 +23105,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23138,7 +23137,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23164,16 +23163,16 @@
         <v>192</v>
       </c>
       <c r="K184" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L184" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L184" t="s" s="2">
+      <c r="M184" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="N184" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23202,49 +23201,49 @@
       </c>
       <c r="X184" s="2"/>
       <c r="Y184" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="Z184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE184" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AF184" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG184" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ184" t="s" s="2">
+      <c r="AK184" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="AK184" t="s" s="2">
+      <c r="AL184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM184" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="AL184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM184" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23252,7 +23251,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23278,16 +23277,16 @@
         <v>366</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L185" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="L185" t="s" s="2">
+      <c r="M185" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="M185" t="s" s="2">
+      <c r="N185" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23336,7 +23335,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23351,16 +23350,16 @@
         <v>44</v>
       </c>
       <c r="AJ185" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AK185" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="AK185" t="s" s="2">
+      <c r="AL185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM185" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="AL185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM185" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23368,14 +23367,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="D186" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="D186" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>42</v>
@@ -23393,16 +23392,16 @@
         <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="K186" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="K186" t="s" s="2">
+      <c r="L186" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="M186" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23452,7 +23451,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23467,7 +23466,7 @@
         <v>44</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>147</v>
@@ -23476,7 +23475,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23484,14 +23483,14 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E187" t="s" s="2">
         <v>42</v>
@@ -23509,19 +23508,19 @@
         <v>53</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L187" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="L187" t="s" s="2">
+      <c r="M187" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23570,7 +23569,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23585,10 +23584,10 @@
         <v>44</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>44</v>
@@ -23602,7 +23601,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23625,19 +23624,19 @@
         <v>53</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L188" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="L188" t="s" s="2">
+      <c r="M188" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23686,7 +23685,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23698,10 +23697,10 @@
         <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>147</v>
@@ -23718,7 +23717,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23830,7 +23829,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23944,11 +23943,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23973,7 +23972,7 @@
         <v>125</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>127</v>
@@ -24026,7 +24025,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24058,7 +24057,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24081,16 +24080,16 @@
         <v>53</v>
       </c>
       <c r="J192" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="K192" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="K192" t="s" s="2">
+      <c r="L192" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="L192" t="s" s="2">
+      <c r="M192" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -24140,7 +24139,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>52</v>
@@ -24164,7 +24163,7 @@
         <v>44</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>44</v>
@@ -24172,7 +24171,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24198,10 +24197,10 @@
         <v>71</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24231,43 +24230,43 @@
         <v>169</v>
       </c>
       <c r="X193" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="Y193" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="Y193" t="s" s="2">
+      <c r="Z193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="Z193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE193" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>147</v>

--- a/output/PersonalHealthRecords/patient-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/patient-ihi-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6966" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6966" uniqueCount="634">
   <si>
     <t>Path</t>
   </si>
@@ -1387,10 +1387,6 @@
   </si>
   <si>
     <t>Patient.birthDate.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>Primitive value for date</t>
@@ -19254,13 +19250,13 @@
         <v>44</v>
       </c>
       <c r="J150" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K150" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="K150" t="s" s="2">
+      <c r="L150" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -19311,7 +19307,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19343,7 +19339,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19366,19 +19362,19 @@
         <v>53</v>
       </c>
       <c r="J151" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K151" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="K151" t="s" s="2">
+      <c r="L151" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L151" t="s" s="2">
+      <c r="M151" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="N151" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>44</v>
@@ -19425,7 +19421,7 @@
         <v>170</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -19440,7 +19436,7 @@
         <v>44</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>147</v>
@@ -19449,7 +19445,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19457,10 +19453,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>44</v>
@@ -19485,16 +19481,16 @@
         <v>370</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L152" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="M152" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>44</v>
@@ -19543,7 +19539,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -19558,7 +19554,7 @@
         <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>147</v>
@@ -19567,7 +19563,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19575,10 +19571,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>44</v>
@@ -19603,16 +19599,16 @@
         <v>275</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L153" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L153" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="M153" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N153" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>44</v>
@@ -19661,7 +19657,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19676,7 +19672,7 @@
         <v>44</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>147</v>
@@ -19685,7 +19681,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19693,7 +19689,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19805,7 +19801,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19915,7 +19911,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>420</v>
@@ -19943,13 +19939,13 @@
         <v>421</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L156" t="s" s="2">
         <v>423</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20031,7 +20027,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20054,13 +20050,13 @@
         <v>44</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>430</v>
+        <v>275</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -20111,7 +20107,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20143,7 +20139,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20166,19 +20162,19 @@
         <v>53</v>
       </c>
       <c r="J158" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="K158" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="K158" t="s" s="2">
+      <c r="L158" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20227,7 +20223,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20242,16 +20238,16 @@
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AK158" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AK158" t="s" s="2">
+      <c r="AL158" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM158" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM158" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20259,7 +20255,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20285,14 +20281,14 @@
         <v>196</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20320,52 +20316,52 @@
         <v>75</v>
       </c>
       <c r="X159" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Y159" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="Y159" t="s" s="2">
+      <c r="Z159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Z159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
+      <c r="AK159" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AK159" t="s" s="2">
+      <c r="AL159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM159" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20373,7 +20369,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20396,19 +20392,19 @@
         <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="K160" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="K160" t="s" s="2">
+      <c r="L160" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L160" t="s" s="2">
+      <c r="M160" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20457,7 +20453,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20472,7 +20468,7 @@
         <v>44</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>147</v>
@@ -20481,7 +20477,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20489,7 +20485,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20512,17 +20508,17 @@
         <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="K161" t="s" s="2">
+      <c r="L161" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
@@ -20571,7 +20567,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20586,7 +20582,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>147</v>
@@ -20595,7 +20591,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20603,7 +20599,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20626,19 +20622,19 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="K162" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="K162" t="s" s="2">
+      <c r="L162" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20687,7 +20683,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20699,10 +20695,10 @@
         <v>44</v>
       </c>
       <c r="AI162" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AJ162" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>147</v>
@@ -20719,7 +20715,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20831,7 +20827,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20945,11 +20941,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20974,7 +20970,7 @@
         <v>125</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>127</v>
@@ -21027,7 +21023,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21059,7 +21055,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21085,14 +21081,14 @@
         <v>196</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21121,7 +21117,7 @@
       </c>
       <c r="X166" s="2"/>
       <c r="Y166" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>44</v>
@@ -21139,7 +21135,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21154,7 +21150,7 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>147</v>
@@ -21163,7 +21159,7 @@
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21171,7 +21167,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21206,7 +21202,7 @@
         <v>382</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21255,7 +21251,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21287,7 +21283,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21313,13 +21309,13 @@
         <v>388</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="M168" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="N168" t="s" s="2">
         <v>392</v>
@@ -21371,7 +21367,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21395,7 +21391,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21403,7 +21399,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21426,17 +21422,17 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21485,7 +21481,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21500,7 +21496,7 @@
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>147</v>
@@ -21509,7 +21505,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21517,7 +21513,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21546,11 +21542,11 @@
         <v>397</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21599,7 +21595,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21623,7 +21619,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21631,7 +21627,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21654,17 +21650,17 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="K171" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="K171" t="s" s="2">
+      <c r="L171" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21713,7 +21709,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21722,13 +21718,13 @@
         <v>52</v>
       </c>
       <c r="AH171" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>147</v>
@@ -21737,7 +21733,7 @@
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21745,7 +21741,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21771,10 +21767,10 @@
         <v>244</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -21825,7 +21821,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21840,7 +21836,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>147</v>
@@ -21857,7 +21853,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21880,19 +21876,19 @@
         <v>53</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21941,7 +21937,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21953,10 +21949,10 @@
         <v>44</v>
       </c>
       <c r="AI173" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AJ173" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>147</v>
@@ -21973,7 +21969,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22085,7 +22081,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22199,11 +22195,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22228,7 +22224,7 @@
         <v>125</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>127</v>
@@ -22281,7 +22277,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22313,7 +22309,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22339,16 +22335,16 @@
         <v>196</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L177" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="L177" t="s" s="2">
+      <c r="M177" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M177" t="s" s="2">
+      <c r="N177" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22373,14 +22369,14 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="X177" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="X177" t="s" s="2">
+      <c r="Y177" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Y177" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
       </c>
@@ -22397,7 +22393,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>52</v>
@@ -22412,7 +22408,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>147</v>
@@ -22421,7 +22417,7 @@
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22429,7 +22425,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22455,16 +22451,16 @@
         <v>196</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L178" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="M178" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22489,46 +22485,46 @@
         <v>44</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="X178" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="Y178" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="Y178" t="s" s="2">
+      <c r="Z178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ178" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>147</v>
@@ -22537,7 +22533,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22545,7 +22541,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22571,14 +22567,14 @@
         <v>196</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22603,46 +22599,46 @@
         <v>44</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="X179" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="Y179" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="Y179" t="s" s="2">
+      <c r="Z179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AF179" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG179" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ179" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>147</v>
@@ -22659,7 +22655,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22682,19 +22678,19 @@
         <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="L180" t="s" s="2">
+      <c r="M180" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="M180" t="s" s="2">
+      <c r="N180" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22743,7 +22739,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22755,13 +22751,13 @@
         <v>44</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AJ180" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AK180" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AK180" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>44</v>
@@ -22775,7 +22771,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22887,7 +22883,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23001,11 +22997,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23030,7 +23026,7 @@
         <v>125</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>127</v>
@@ -23083,7 +23079,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23115,7 +23111,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23141,16 +23137,16 @@
         <v>196</v>
       </c>
       <c r="K184" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L184" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="L184" t="s" s="2">
+      <c r="M184" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="N184" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23179,49 +23175,49 @@
       </c>
       <c r="X184" s="2"/>
       <c r="Y184" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="Z184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE184" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AF184" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG184" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ184" t="s" s="2">
+      <c r="AK184" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="AK184" t="s" s="2">
+      <c r="AL184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM184" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="AL184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM184" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23229,7 +23225,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23255,16 +23251,16 @@
         <v>370</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L185" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="L185" t="s" s="2">
+      <c r="M185" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M185" t="s" s="2">
+      <c r="N185" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23313,7 +23309,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23328,16 +23324,16 @@
         <v>44</v>
       </c>
       <c r="AJ185" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AK185" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AK185" t="s" s="2">
+      <c r="AL185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM185" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="AL185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM185" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23345,14 +23341,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="D186" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="D186" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>42</v>
@@ -23370,16 +23366,16 @@
         <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="K186" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="K186" t="s" s="2">
+      <c r="L186" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="M186" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23429,7 +23425,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23444,7 +23440,7 @@
         <v>44</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>147</v>
@@ -23453,7 +23449,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23461,14 +23457,14 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E187" t="s" s="2">
         <v>42</v>
@@ -23486,19 +23482,19 @@
         <v>53</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L187" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L187" t="s" s="2">
+      <c r="M187" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23547,7 +23543,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23562,10 +23558,10 @@
         <v>44</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>44</v>
@@ -23579,7 +23575,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23602,19 +23598,19 @@
         <v>53</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L188" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="L188" t="s" s="2">
+      <c r="M188" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23663,7 +23659,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23675,10 +23671,10 @@
         <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>147</v>
@@ -23695,7 +23691,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23807,7 +23803,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23921,11 +23917,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23950,7 +23946,7 @@
         <v>125</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>127</v>
@@ -24003,7 +23999,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24035,7 +24031,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24058,16 +24054,16 @@
         <v>53</v>
       </c>
       <c r="J192" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="K192" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="K192" t="s" s="2">
+      <c r="L192" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="L192" t="s" s="2">
+      <c r="M192" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -24117,7 +24113,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>52</v>
@@ -24141,7 +24137,7 @@
         <v>44</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>44</v>
@@ -24149,7 +24145,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24175,10 +24171,10 @@
         <v>71</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24208,43 +24204,43 @@
         <v>174</v>
       </c>
       <c r="X193" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="Y193" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="Y193" t="s" s="2">
+      <c r="Z193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="Z193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE193" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>147</v>

--- a/output/PersonalHealthRecords/patient-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/patient-ihi-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6966" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6966" uniqueCount="635">
   <si>
     <t>Path</t>
   </si>
@@ -1387,6 +1387,10 @@
   </si>
   <si>
     <t>Patient.birthDate.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Primitive value for date</t>
@@ -19250,13 +19254,13 @@
         <v>44</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -19307,7 +19311,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19339,7 +19343,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19362,19 +19366,19 @@
         <v>53</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>44</v>
@@ -19421,7 +19425,7 @@
         <v>170</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -19436,7 +19440,7 @@
         <v>44</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>147</v>
@@ -19445,7 +19449,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19453,10 +19457,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>44</v>
@@ -19481,16 +19485,16 @@
         <v>370</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>44</v>
@@ -19539,7 +19543,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -19554,7 +19558,7 @@
         <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>147</v>
@@ -19563,7 +19567,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19571,10 +19575,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>44</v>
@@ -19599,16 +19603,16 @@
         <v>275</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>44</v>
@@ -19657,7 +19661,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19672,7 +19676,7 @@
         <v>44</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>147</v>
@@ -19681,7 +19685,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19689,7 +19693,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19801,7 +19805,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19911,7 +19915,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>420</v>
@@ -19939,13 +19943,13 @@
         <v>421</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L156" t="s" s="2">
         <v>423</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20027,7 +20031,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20050,13 +20054,13 @@
         <v>44</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>275</v>
+        <v>430</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -20107,7 +20111,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20139,7 +20143,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20162,19 +20166,19 @@
         <v>53</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20223,7 +20227,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20238,16 +20242,16 @@
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20255,7 +20259,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20281,14 +20285,14 @@
         <v>196</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20316,10 +20320,10 @@
         <v>75</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>44</v>
@@ -20337,7 +20341,7 @@
         <v>44</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
@@ -20352,16 +20356,16 @@
         <v>44</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20369,7 +20373,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20392,19 +20396,19 @@
         <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20453,7 +20457,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20468,7 +20472,7 @@
         <v>44</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>147</v>
@@ -20477,7 +20481,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20485,7 +20489,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20508,17 +20512,17 @@
         <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
@@ -20567,7 +20571,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20582,7 +20586,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>147</v>
@@ -20591,7 +20595,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20599,7 +20603,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20622,19 +20626,19 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20683,7 +20687,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20695,10 +20699,10 @@
         <v>44</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>147</v>
@@ -20715,7 +20719,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20827,7 +20831,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20941,11 +20945,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20970,7 +20974,7 @@
         <v>125</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>127</v>
@@ -21023,7 +21027,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21055,7 +21059,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21081,14 +21085,14 @@
         <v>196</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21117,7 +21121,7 @@
       </c>
       <c r="X166" s="2"/>
       <c r="Y166" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>44</v>
@@ -21135,7 +21139,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21150,7 +21154,7 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>147</v>
@@ -21159,7 +21163,7 @@
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21167,7 +21171,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21202,7 +21206,7 @@
         <v>382</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21251,7 +21255,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21283,7 +21287,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21309,13 +21313,13 @@
         <v>388</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N168" t="s" s="2">
         <v>392</v>
@@ -21367,7 +21371,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21391,7 +21395,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21399,7 +21403,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21422,17 +21426,17 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21481,7 +21485,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21496,7 +21500,7 @@
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>147</v>
@@ -21505,7 +21509,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21513,7 +21517,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21542,11 +21546,11 @@
         <v>397</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21595,7 +21599,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21619,7 +21623,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21627,7 +21631,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21650,17 +21654,17 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21709,7 +21713,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21718,13 +21722,13 @@
         <v>52</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>147</v>
@@ -21733,7 +21737,7 @@
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21741,7 +21745,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21767,10 +21771,10 @@
         <v>244</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -21821,7 +21825,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21836,7 +21840,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>147</v>
@@ -21853,7 +21857,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21876,19 +21880,19 @@
         <v>53</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21937,7 +21941,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21949,10 +21953,10 @@
         <v>44</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>147</v>
@@ -21969,7 +21973,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22081,7 +22085,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22195,11 +22199,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22224,7 +22228,7 @@
         <v>125</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>127</v>
@@ -22277,7 +22281,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22309,7 +22313,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22335,16 +22339,16 @@
         <v>196</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22369,13 +22373,13 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
@@ -22393,7 +22397,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>52</v>
@@ -22408,7 +22412,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>147</v>
@@ -22417,7 +22421,7 @@
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22425,7 +22429,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22451,16 +22455,16 @@
         <v>196</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22485,13 +22489,13 @@
         <v>44</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>44</v>
@@ -22509,7 +22513,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
@@ -22524,7 +22528,7 @@
         <v>44</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>147</v>
@@ -22533,7 +22537,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22541,7 +22545,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22567,14 +22571,14 @@
         <v>196</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22599,13 +22603,13 @@
         <v>44</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>44</v>
@@ -22623,7 +22627,7 @@
         <v>44</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
@@ -22638,7 +22642,7 @@
         <v>44</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>147</v>
@@ -22655,7 +22659,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22678,19 +22682,19 @@
         <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22739,7 +22743,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22751,13 +22755,13 @@
         <v>44</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>44</v>
@@ -22771,7 +22775,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22883,7 +22887,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -22997,11 +23001,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23026,7 +23030,7 @@
         <v>125</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>127</v>
@@ -23079,7 +23083,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23111,7 +23115,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23137,16 +23141,16 @@
         <v>196</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23175,7 +23179,7 @@
       </c>
       <c r="X184" s="2"/>
       <c r="Y184" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>44</v>
@@ -23193,7 +23197,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>52</v>
@@ -23208,16 +23212,16 @@
         <v>44</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23225,7 +23229,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23251,16 +23255,16 @@
         <v>370</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23309,7 +23313,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23324,16 +23328,16 @@
         <v>44</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23341,14 +23345,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>42</v>
@@ -23366,16 +23370,16 @@
         <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23425,7 +23429,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23440,7 +23444,7 @@
         <v>44</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>147</v>
@@ -23449,7 +23453,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23457,14 +23461,14 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E187" t="s" s="2">
         <v>42</v>
@@ -23482,19 +23486,19 @@
         <v>53</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23543,7 +23547,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23558,10 +23562,10 @@
         <v>44</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>44</v>
@@ -23575,7 +23579,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23598,19 +23602,19 @@
         <v>53</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23659,7 +23663,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23671,10 +23675,10 @@
         <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>147</v>
@@ -23691,7 +23695,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23803,7 +23807,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23917,11 +23921,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23946,7 +23950,7 @@
         <v>125</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>127</v>
@@ -23999,7 +24003,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24031,7 +24035,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24054,16 +24058,16 @@
         <v>53</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -24113,7 +24117,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>52</v>
@@ -24137,7 +24141,7 @@
         <v>44</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>44</v>
@@ -24145,7 +24149,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24171,10 +24175,10 @@
         <v>71</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24204,10 +24208,10 @@
         <v>174</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>44</v>
@@ -24225,7 +24229,7 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>52</v>
@@ -24240,7 +24244,7 @@
         <v>44</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>147</v>
